--- a/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.634724568729496</v>
+        <v>3.634724568729609</v>
       </c>
       <c r="C2">
-        <v>1.244262240592661</v>
+        <v>1.244262240592946</v>
       </c>
       <c r="D2">
-        <v>0.012429953452326</v>
+        <v>0.0124299534524468</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2839693536598844</v>
+        <v>0.2839693536598631</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -453,22 +453,22 @@
         <v>3.145660039303948</v>
       </c>
       <c r="C3">
-        <v>1.074717062254933</v>
+        <v>1.07471706225499</v>
       </c>
       <c r="D3">
-        <v>0.01296702234717273</v>
+        <v>0.01296702234705904</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.813694536567013</v>
+        <v>0.8136945365669987</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2759750590751153</v>
+        <v>0.2759750590751118</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.847944858825485</v>
+        <v>2.847944858825429</v>
       </c>
       <c r="C4">
-        <v>0.971814145146908</v>
+        <v>0.9718141451470501</v>
       </c>
       <c r="D4">
-        <v>0.01336964927090278</v>
+        <v>0.01336964927063278</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7586699531287024</v>
+        <v>0.7586699531286882</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.2732400649330238</v>
+        <v>0.2732400649330131</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.727150072452957</v>
+        <v>2.727150072453071</v>
       </c>
       <c r="C5">
-        <v>0.9301288526218343</v>
+        <v>0.9301288526218912</v>
       </c>
       <c r="D5">
-        <v>0.01355047691746236</v>
+        <v>0.01355047691727407</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7371510708381948</v>
+        <v>0.737151070838209</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.2726269435150783</v>
+        <v>0.272626943515089</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -567,22 +567,22 @@
         <v>2.70712067625584</v>
       </c>
       <c r="C6">
-        <v>0.9232205909853803</v>
+        <v>0.9232205909854372</v>
       </c>
       <c r="D6">
-        <v>0.01358147242151375</v>
+        <v>0.01358147242128283</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7336297844755677</v>
+        <v>0.7336297844755535</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.2725541688106148</v>
+        <v>0.272554168810597</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.846313797392725</v>
+        <v>2.846313797392554</v>
       </c>
       <c r="C7">
-        <v>0.9712510231502449</v>
+        <v>0.971251023150046</v>
       </c>
       <c r="D7">
-        <v>0.0133720220902056</v>
+        <v>0.01337202209027311</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.758376204276118</v>
+        <v>0.7583762042760895</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>3.465485287694719</v>
       </c>
       <c r="C8">
-        <v>1.185520926995991</v>
+        <v>1.185520926996219</v>
       </c>
       <c r="D8">
-        <v>0.01259901320898749</v>
+        <v>0.01259901320911183</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8757729810597397</v>
+        <v>0.8757729810597255</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.2807334387697935</v>
+        <v>0.2807334387698077</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.706172400256378</v>
+        <v>4.706172400256435</v>
       </c>
       <c r="C9">
         <v>1.61788620917298</v>
       </c>
       <c r="D9">
-        <v>0.01174195207398654</v>
+        <v>0.01174195207398299</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.142452702658687</v>
+        <v>1.142452702658673</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.3149442592738865</v>
+        <v>0.3149442592739078</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.643459940657351</v>
+        <v>5.643459940657408</v>
       </c>
       <c r="C10">
-        <v>1.947196802168605</v>
+        <v>1.947196802168662</v>
       </c>
       <c r="D10">
         <v>0.01164417376924476</v>
@@ -728,13 +728,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.368223499432276</v>
+        <v>1.36822349943229</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.3554799627423506</v>
+        <v>0.3554799627423364</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.07794183330293</v>
+        <v>6.077941833302987</v>
       </c>
       <c r="C11">
-        <v>2.100641124059621</v>
+        <v>2.100641124060076</v>
       </c>
       <c r="D11">
-        <v>0.01175040991708443</v>
+        <v>0.01175040991699206</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.479385687044172</v>
+        <v>1.479385687044143</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.3781766323401925</v>
+        <v>0.3781766323401641</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.243874515689697</v>
+        <v>6.243874515689754</v>
       </c>
       <c r="C12">
-        <v>2.159376800316352</v>
+        <v>2.159376800316238</v>
       </c>
       <c r="D12">
-        <v>0.01181585481553782</v>
+        <v>0.01181585481554137</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.522887872701872</v>
+        <v>1.522887872701844</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.3874721568434154</v>
+        <v>0.3874721568434083</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.208071358968255</v>
+        <v>6.208071358968141</v>
       </c>
       <c r="C13">
-        <v>2.146697161575219</v>
+        <v>2.146697161575105</v>
       </c>
       <c r="D13">
-        <v>0.01180057590726946</v>
+        <v>0.01180057590720907</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.513452967592514</v>
+        <v>1.513452967592528</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.3854374859441734</v>
+        <v>0.3854374859441663</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.091563597813547</v>
+        <v>6.09156359781349</v>
       </c>
       <c r="C14">
-        <v>2.105460061414192</v>
+        <v>2.105460061414419</v>
       </c>
       <c r="D14">
-        <v>0.01175526637388913</v>
+        <v>0.01175526637387492</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.3789267837275432</v>
+        <v>0.3789267837275574</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.02038968054967</v>
+        <v>6.020389680549727</v>
       </c>
       <c r="C15">
-        <v>2.08028655775837</v>
+        <v>2.080286557758654</v>
       </c>
       <c r="D15">
-        <v>0.01173091184178077</v>
+        <v>0.01173091184158892</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.464431674041393</v>
+        <v>1.464431674041407</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.375032896154778</v>
+        <v>0.3750328961547709</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.615248266465017</v>
+        <v>5.615248266465073</v>
       </c>
       <c r="C16">
-        <v>1.937250839676551</v>
+        <v>1.937250839676949</v>
       </c>
       <c r="D16">
-        <v>0.01164055375884487</v>
+        <v>0.01164055375884843</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.361144741712863</v>
+        <v>1.361144741712849</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.3540896449696262</v>
+        <v>0.354089644969612</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.368942713545948</v>
+        <v>5.368942713546176</v>
       </c>
       <c r="C17">
-        <v>1.850506261611031</v>
+        <v>1.850506261611486</v>
       </c>
       <c r="D17">
-        <v>0.01162607024273044</v>
+        <v>0.01162607024266293</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.3423912714379682</v>
+        <v>0.342391271437954</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.228021128964258</v>
+        <v>5.228021128964428</v>
       </c>
       <c r="C18">
-        <v>1.80094844556487</v>
+        <v>1.800948445564984</v>
       </c>
       <c r="D18">
-        <v>0.01163168281851412</v>
+        <v>0.01163168281853544</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.265733927462293</v>
+        <v>1.265733927462264</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.3360573748751392</v>
+        <v>0.336057374875125</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1061,22 +1061,22 @@
         <v>5.180429027518073</v>
       </c>
       <c r="C19">
-        <v>1.784223618004603</v>
+        <v>1.78422361800466</v>
       </c>
       <c r="D19">
-        <v>0.01163587901131891</v>
+        <v>0.01163587901130114</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.254235438483207</v>
+        <v>1.254235438483235</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.3339781078150068</v>
+        <v>0.333978107815021</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.395083439041287</v>
+        <v>5.395083439041457</v>
       </c>
       <c r="C20">
         <v>1.859704937187757</v>
       </c>
       <c r="D20">
-        <v>0.01162614511688176</v>
+        <v>0.01162614511701676</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.306494409563271</v>
+        <v>1.306494409563228</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.3435951295305841</v>
+        <v>0.3435951295305699</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.125744589142244</v>
+        <v>6.12574458914213</v>
       </c>
       <c r="C21">
-        <v>2.117554386229983</v>
+        <v>2.117554386230097</v>
       </c>
       <c r="D21">
-        <v>0.01176785939844649</v>
+        <v>0.01176785939857083</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.49185918029815</v>
+        <v>1.491859180298121</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.3808193471992709</v>
+        <v>0.3808193471992496</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.611591848414207</v>
+        <v>6.61159184841415</v>
       </c>
       <c r="C22">
-        <v>2.289804750304938</v>
+        <v>2.289804750304654</v>
       </c>
       <c r="D22">
-        <v>0.01200954093746631</v>
+        <v>0.01200954093746986</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.621318590177495</v>
+        <v>1.621318590177481</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.351437305009483</v>
+        <v>6.351437305009426</v>
       </c>
       <c r="C23">
-        <v>2.197490888735501</v>
+        <v>2.197490888735445</v>
       </c>
       <c r="D23">
-        <v>0.01186558288734929</v>
+        <v>0.01186558288733508</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.55139263412083</v>
+        <v>1.551392634120845</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.383263107981918</v>
+        <v>5.383263107982089</v>
       </c>
       <c r="C24">
-        <v>1.855545249497879</v>
+        <v>1.855545249497993</v>
       </c>
       <c r="D24">
-        <v>0.0116260681086402</v>
+        <v>0.01162606810868283</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.343049651913077</v>
+        <v>0.3430496519130699</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.366774074539478</v>
+        <v>4.366774074539421</v>
       </c>
       <c r="C25">
-        <v>1.499210321847613</v>
+        <v>1.499210321847556</v>
       </c>
       <c r="D25">
-        <v>0.01189097205032397</v>
+        <v>0.01189097205022094</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.065672844190928</v>
+        <v>1.065672844190914</v>
       </c>
       <c r="G25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.634724568729609</v>
+        <v>3.634724568729496</v>
       </c>
       <c r="C2">
-        <v>1.244262240592946</v>
+        <v>1.244262240592661</v>
       </c>
       <c r="D2">
-        <v>0.0124299534524468</v>
+        <v>0.012429953452326</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2839693536598631</v>
+        <v>0.2839693536598844</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -453,22 +453,22 @@
         <v>3.145660039303948</v>
       </c>
       <c r="C3">
-        <v>1.07471706225499</v>
+        <v>1.074717062254933</v>
       </c>
       <c r="D3">
-        <v>0.01296702234705904</v>
+        <v>0.01296702234717273</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8136945365669987</v>
+        <v>0.813694536567013</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2759750590751118</v>
+        <v>0.2759750590751153</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.847944858825429</v>
+        <v>2.847944858825485</v>
       </c>
       <c r="C4">
-        <v>0.9718141451470501</v>
+        <v>0.971814145146908</v>
       </c>
       <c r="D4">
-        <v>0.01336964927063278</v>
+        <v>0.01336964927090278</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7586699531286882</v>
+        <v>0.7586699531287024</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.2732400649330131</v>
+        <v>0.2732400649330238</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.727150072453071</v>
+        <v>2.727150072452957</v>
       </c>
       <c r="C5">
-        <v>0.9301288526218912</v>
+        <v>0.9301288526218343</v>
       </c>
       <c r="D5">
-        <v>0.01355047691727407</v>
+        <v>0.01355047691746236</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.737151070838209</v>
+        <v>0.7371510708381948</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.272626943515089</v>
+        <v>0.2726269435150783</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -567,22 +567,22 @@
         <v>2.70712067625584</v>
       </c>
       <c r="C6">
-        <v>0.9232205909854372</v>
+        <v>0.9232205909853803</v>
       </c>
       <c r="D6">
-        <v>0.01358147242128283</v>
+        <v>0.01358147242151375</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7336297844755535</v>
+        <v>0.7336297844755677</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.272554168810597</v>
+        <v>0.2725541688106148</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.846313797392554</v>
+        <v>2.846313797392725</v>
       </c>
       <c r="C7">
-        <v>0.971251023150046</v>
+        <v>0.9712510231502449</v>
       </c>
       <c r="D7">
-        <v>0.01337202209027311</v>
+        <v>0.0133720220902056</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7583762042760895</v>
+        <v>0.758376204276118</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>3.465485287694719</v>
       </c>
       <c r="C8">
-        <v>1.185520926996219</v>
+        <v>1.185520926995991</v>
       </c>
       <c r="D8">
-        <v>0.01259901320911183</v>
+        <v>0.01259901320898749</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8757729810597255</v>
+        <v>0.8757729810597397</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.2807334387698077</v>
+        <v>0.2807334387697935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.706172400256435</v>
+        <v>4.706172400256378</v>
       </c>
       <c r="C9">
         <v>1.61788620917298</v>
       </c>
       <c r="D9">
-        <v>0.01174195207398299</v>
+        <v>0.01174195207398654</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.142452702658673</v>
+        <v>1.142452702658687</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.3149442592739078</v>
+        <v>0.3149442592738865</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.643459940657408</v>
+        <v>5.643459940657351</v>
       </c>
       <c r="C10">
-        <v>1.947196802168662</v>
+        <v>1.947196802168605</v>
       </c>
       <c r="D10">
         <v>0.01164417376924476</v>
@@ -728,13 +728,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.36822349943229</v>
+        <v>1.368223499432276</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.3554799627423364</v>
+        <v>0.3554799627423506</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.077941833302987</v>
+        <v>6.07794183330293</v>
       </c>
       <c r="C11">
-        <v>2.100641124060076</v>
+        <v>2.100641124059621</v>
       </c>
       <c r="D11">
-        <v>0.01175040991699206</v>
+        <v>0.01175040991708443</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.479385687044143</v>
+        <v>1.479385687044172</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.3781766323401641</v>
+        <v>0.3781766323401925</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.243874515689754</v>
+        <v>6.243874515689697</v>
       </c>
       <c r="C12">
-        <v>2.159376800316238</v>
+        <v>2.159376800316352</v>
       </c>
       <c r="D12">
-        <v>0.01181585481554137</v>
+        <v>0.01181585481553782</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.522887872701844</v>
+        <v>1.522887872701872</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.3874721568434083</v>
+        <v>0.3874721568434154</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.208071358968141</v>
+        <v>6.208071358968255</v>
       </c>
       <c r="C13">
-        <v>2.146697161575105</v>
+        <v>2.146697161575219</v>
       </c>
       <c r="D13">
-        <v>0.01180057590720907</v>
+        <v>0.01180057590726946</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.513452967592528</v>
+        <v>1.513452967592514</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.3854374859441663</v>
+        <v>0.3854374859441734</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.09156359781349</v>
+        <v>6.091563597813547</v>
       </c>
       <c r="C14">
-        <v>2.105460061414419</v>
+        <v>2.105460061414192</v>
       </c>
       <c r="D14">
-        <v>0.01175526637387492</v>
+        <v>0.01175526637388913</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.3789267837275574</v>
+        <v>0.3789267837275432</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.020389680549727</v>
+        <v>6.02038968054967</v>
       </c>
       <c r="C15">
-        <v>2.080286557758654</v>
+        <v>2.08028655775837</v>
       </c>
       <c r="D15">
-        <v>0.01173091184158892</v>
+        <v>0.01173091184178077</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.464431674041407</v>
+        <v>1.464431674041393</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.3750328961547709</v>
+        <v>0.375032896154778</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.615248266465073</v>
+        <v>5.615248266465017</v>
       </c>
       <c r="C16">
-        <v>1.937250839676949</v>
+        <v>1.937250839676551</v>
       </c>
       <c r="D16">
-        <v>0.01164055375884843</v>
+        <v>0.01164055375884487</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.361144741712849</v>
+        <v>1.361144741712863</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.354089644969612</v>
+        <v>0.3540896449696262</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.368942713546176</v>
+        <v>5.368942713545948</v>
       </c>
       <c r="C17">
-        <v>1.850506261611486</v>
+        <v>1.850506261611031</v>
       </c>
       <c r="D17">
-        <v>0.01162607024266293</v>
+        <v>0.01162607024273044</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.342391271437954</v>
+        <v>0.3423912714379682</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.228021128964428</v>
+        <v>5.228021128964258</v>
       </c>
       <c r="C18">
-        <v>1.800948445564984</v>
+        <v>1.80094844556487</v>
       </c>
       <c r="D18">
-        <v>0.01163168281853544</v>
+        <v>0.01163168281851412</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.265733927462264</v>
+        <v>1.265733927462293</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.336057374875125</v>
+        <v>0.3360573748751392</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1061,22 +1061,22 @@
         <v>5.180429027518073</v>
       </c>
       <c r="C19">
-        <v>1.78422361800466</v>
+        <v>1.784223618004603</v>
       </c>
       <c r="D19">
-        <v>0.01163587901130114</v>
+        <v>0.01163587901131891</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.254235438483235</v>
+        <v>1.254235438483207</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.333978107815021</v>
+        <v>0.3339781078150068</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.395083439041457</v>
+        <v>5.395083439041287</v>
       </c>
       <c r="C20">
         <v>1.859704937187757</v>
       </c>
       <c r="D20">
-        <v>0.01162614511701676</v>
+        <v>0.01162614511688176</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.306494409563228</v>
+        <v>1.306494409563271</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.3435951295305699</v>
+        <v>0.3435951295305841</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.12574458914213</v>
+        <v>6.125744589142244</v>
       </c>
       <c r="C21">
-        <v>2.117554386230097</v>
+        <v>2.117554386229983</v>
       </c>
       <c r="D21">
-        <v>0.01176785939857083</v>
+        <v>0.01176785939844649</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.491859180298121</v>
+        <v>1.49185918029815</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.3808193471992496</v>
+        <v>0.3808193471992709</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.61159184841415</v>
+        <v>6.611591848414207</v>
       </c>
       <c r="C22">
-        <v>2.289804750304654</v>
+        <v>2.289804750304938</v>
       </c>
       <c r="D22">
-        <v>0.01200954093746986</v>
+        <v>0.01200954093746631</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.621318590177481</v>
+        <v>1.621318590177495</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.351437305009426</v>
+        <v>6.351437305009483</v>
       </c>
       <c r="C23">
-        <v>2.197490888735445</v>
+        <v>2.197490888735501</v>
       </c>
       <c r="D23">
-        <v>0.01186558288733508</v>
+        <v>0.01186558288734929</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.551392634120845</v>
+        <v>1.55139263412083</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.383263107982089</v>
+        <v>5.383263107981918</v>
       </c>
       <c r="C24">
-        <v>1.855545249497993</v>
+        <v>1.855545249497879</v>
       </c>
       <c r="D24">
-        <v>0.01162606810868283</v>
+        <v>0.0116260681086402</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.3430496519130699</v>
+        <v>0.343049651913077</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.366774074539421</v>
+        <v>4.366774074539478</v>
       </c>
       <c r="C25">
-        <v>1.499210321847556</v>
+        <v>1.499210321847613</v>
       </c>
       <c r="D25">
-        <v>0.01189097205022094</v>
+        <v>0.01189097205032397</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.065672844190914</v>
+        <v>1.065672844190928</v>
       </c>
       <c r="G25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.634724568729496</v>
+        <v>3.610176384772672</v>
       </c>
       <c r="C2">
-        <v>1.244262240592661</v>
+        <v>1.230089782594519</v>
       </c>
       <c r="D2">
-        <v>0.012429953452326</v>
+        <v>0.013889214828815</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9097969026393429</v>
+        <v>0.9176618180183738</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007731539159589056</v>
       </c>
       <c r="H2">
-        <v>0.2839693536598844</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2934330899952045</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -444,34 +447,37 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.145660039303948</v>
+        <v>3.124270885548526</v>
       </c>
       <c r="C3">
-        <v>1.074717062254933</v>
+        <v>1.062179148276925</v>
       </c>
       <c r="D3">
-        <v>0.01296702234717273</v>
+        <v>0.01459817828685317</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.813694536567013</v>
+        <v>0.824661590560936</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007810661410204722</v>
       </c>
       <c r="H3">
-        <v>0.2759750590751153</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2870253161134286</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -482,34 +488,37 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.847944858825485</v>
+        <v>2.828492479047725</v>
       </c>
       <c r="C4">
-        <v>0.971814145146908</v>
+        <v>0.9602800969995542</v>
       </c>
       <c r="D4">
-        <v>0.01336964927090278</v>
+        <v>0.01510758220262076</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7586699531287024</v>
+        <v>0.7715506149893514</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007860452519519644</v>
       </c>
       <c r="H4">
-        <v>0.2732400649330238</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2852716930100492</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -520,34 +529,37 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.727150072452957</v>
+        <v>2.708487766727558</v>
       </c>
       <c r="C5">
-        <v>0.9301288526218343</v>
+        <v>0.919004768315574</v>
       </c>
       <c r="D5">
-        <v>0.01355047691746236</v>
+        <v>0.01533228355224736</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7371510708381948</v>
+        <v>0.7508152976462981</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007881062600783859</v>
       </c>
       <c r="H5">
-        <v>0.2726269435150783</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2850610431035889</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -558,34 +570,37 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.70712067625584</v>
+        <v>2.688589653321912</v>
       </c>
       <c r="C6">
-        <v>0.9232205909853803</v>
+        <v>0.9121646562040837</v>
       </c>
       <c r="D6">
-        <v>0.01358147242151375</v>
+        <v>0.0153705874568999</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7336297844755677</v>
+        <v>0.7474243897593027</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007884504636620016</v>
       </c>
       <c r="H6">
-        <v>0.2725541688106148</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2850552727783509</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -596,34 +611,37 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.846313797392725</v>
+        <v>2.826872067581121</v>
       </c>
       <c r="C7">
-        <v>0.9712510231502449</v>
+        <v>0.9597224993401881</v>
       </c>
       <c r="D7">
-        <v>0.0133720220902056</v>
+        <v>0.015110545192492</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.758376204276118</v>
+        <v>0.77126741647578</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.000786072916033992</v>
       </c>
       <c r="H7">
-        <v>0.2732298229517127</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2852668676422638</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -634,34 +652,37 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.465485287694719</v>
+        <v>3.442027926685228</v>
       </c>
       <c r="C8">
-        <v>1.185520926995991</v>
+        <v>1.171912530808584</v>
       </c>
       <c r="D8">
-        <v>0.01259901320898749</v>
+        <v>0.0141173205727938</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8757729810597397</v>
+        <v>0.8847066400354748</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007758579233133541</v>
       </c>
       <c r="H8">
-        <v>0.2807334387697935</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2907431724004113</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -672,34 +693,37 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.706172400256378</v>
+        <v>4.674736550598141</v>
       </c>
       <c r="C9">
-        <v>1.61788620917298</v>
+        <v>1.600158525609686</v>
       </c>
       <c r="D9">
-        <v>0.01174195207398654</v>
+        <v>0.01283554050347036</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.142452702658687</v>
+        <v>1.143617278285561</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007567083150781392</v>
       </c>
       <c r="H9">
-        <v>0.3149442592738865</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3209979087717798</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -710,34 +734,37 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.643459940657351</v>
+        <v>5.605965310177737</v>
       </c>
       <c r="C10">
-        <v>1.947196802168605</v>
+        <v>1.926347671559483</v>
       </c>
       <c r="D10">
-        <v>0.01164417376924476</v>
+        <v>0.01242570523675468</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.368223499432276</v>
+        <v>1.36354608031769</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007430551404979513</v>
       </c>
       <c r="H10">
-        <v>0.3554799627423506</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3585768859575467</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -748,34 +775,37 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.07794183330293</v>
+        <v>6.037610951134866</v>
       </c>
       <c r="C11">
-        <v>2.100641124059621</v>
+        <v>2.078331849625499</v>
       </c>
       <c r="D11">
-        <v>0.01175040991708443</v>
+        <v>0.01238877700167862</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.479385687044172</v>
+        <v>1.471985942584752</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007369030224828539</v>
       </c>
       <c r="H11">
-        <v>0.3781766323401925</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.3799005006571434</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -786,34 +816,37 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.243874515689697</v>
+        <v>6.202454272321972</v>
       </c>
       <c r="C12">
-        <v>2.159376800316352</v>
+        <v>2.136506823635955</v>
       </c>
       <c r="D12">
-        <v>0.01181585481553782</v>
+        <v>0.01239971350138802</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.522887872701872</v>
+        <v>1.51444430009289</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007345788270637366</v>
       </c>
       <c r="H12">
-        <v>0.3874721568434154</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3886703105626879</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -824,34 +857,37 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.208071358968255</v>
+        <v>6.166886479720063</v>
       </c>
       <c r="C13">
-        <v>2.146697161575219</v>
+        <v>2.123948324017249</v>
       </c>
       <c r="D13">
-        <v>0.01180057590726946</v>
+        <v>0.01239618925393771</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.513452967592514</v>
+        <v>1.505234842776929</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007350791921971214</v>
       </c>
       <c r="H13">
-        <v>0.3854374859441734</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3867491494286881</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -862,34 +898,37 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.091563597813547</v>
+        <v>6.051143425046234</v>
       </c>
       <c r="C14">
-        <v>2.105460061414192</v>
+        <v>2.083104826354656</v>
       </c>
       <c r="D14">
-        <v>0.01175526637388913</v>
+        <v>0.01238915571025245</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.48293523934187</v>
+        <v>1.475449901104469</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007367117182151196</v>
       </c>
       <c r="H14">
-        <v>0.3789267837275432</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.3806075279061503</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -900,34 +939,37 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.02038968054967</v>
+        <v>5.980435789896887</v>
       </c>
       <c r="C15">
-        <v>2.08028655775837</v>
+        <v>2.058171336937448</v>
       </c>
       <c r="D15">
-        <v>0.01173091184178077</v>
+        <v>0.0123882039065073</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.464431674041393</v>
+        <v>1.457393384057895</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007377123058032395</v>
       </c>
       <c r="H15">
-        <v>0.375032896154778</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.3769389046268472</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -938,34 +980,37 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.615248266465017</v>
+        <v>5.577937069845461</v>
       </c>
       <c r="C16">
-        <v>1.937250839676551</v>
+        <v>1.916496161781311</v>
       </c>
       <c r="D16">
-        <v>0.01164055375884487</v>
+        <v>0.01243140715542168</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.361144741712863</v>
+        <v>1.356643634259186</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007434581333774462</v>
       </c>
       <c r="H16">
-        <v>0.3540896449696262</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3572755950633422</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -976,34 +1021,37 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.368942713545948</v>
+        <v>5.333229712659602</v>
       </c>
       <c r="C17">
-        <v>1.850506261611031</v>
+        <v>1.830574631485092</v>
       </c>
       <c r="D17">
-        <v>0.01162607024273044</v>
+        <v>0.01249846999036919</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.300075889651211</v>
+        <v>1.297112290716569</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007469960715900227</v>
       </c>
       <c r="H17">
-        <v>0.3423912714379682</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3463541047995378</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1014,34 +1062,37 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.228021128964258</v>
+        <v>5.193220096606751</v>
       </c>
       <c r="C18">
-        <v>1.80094844556487</v>
+        <v>1.78148656798237</v>
       </c>
       <c r="D18">
-        <v>0.01163168281851412</v>
+        <v>0.01255088058385567</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.265733927462293</v>
+        <v>1.263648818232426</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007490367323193151</v>
       </c>
       <c r="H18">
-        <v>0.3360573748751392</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3404645337836385</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1052,34 +1103,37 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.180429027518073</v>
+        <v>5.145935628253824</v>
       </c>
       <c r="C19">
-        <v>1.784223618004603</v>
+        <v>1.764920219957958</v>
       </c>
       <c r="D19">
-        <v>0.01163587901131891</v>
+        <v>0.01257090705319186</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.254235438483207</v>
+        <v>1.252446867078717</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007497287337370866</v>
       </c>
       <c r="H19">
-        <v>0.3339781078150068</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3385353233973092</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1090,34 +1144,37 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.395083439041287</v>
+        <v>5.359201085469635</v>
       </c>
       <c r="C20">
-        <v>1.859704937187757</v>
+        <v>1.839686082547132</v>
       </c>
       <c r="D20">
-        <v>0.01162614511688176</v>
+        <v>0.01248987582413008</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.306494409563271</v>
+        <v>1.303367769311876</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007466188790683198</v>
       </c>
       <c r="H20">
-        <v>0.3435951295305841</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.347475534462717</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1128,34 +1185,37 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.125744589142244</v>
+        <v>6.085100253781718</v>
       </c>
       <c r="C21">
-        <v>2.117554386229983</v>
+        <v>2.095083769485882</v>
       </c>
       <c r="D21">
-        <v>0.01176785939844649</v>
+        <v>0.01239051523826973</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.49185918029815</v>
+        <v>1.484158988429357</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007362320827380375</v>
       </c>
       <c r="H21">
-        <v>0.3808193471992709</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.3823918554464711</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1166,34 +1226,37 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.611591848414207</v>
+        <v>6.567743570091125</v>
       </c>
       <c r="C22">
-        <v>2.289804750304938</v>
+        <v>2.265685211696166</v>
       </c>
       <c r="D22">
-        <v>0.01200954093746631</v>
+        <v>0.01247284655854486</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.621318590177495</v>
+        <v>1.610551674524046</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007294739575150095</v>
       </c>
       <c r="H22">
-        <v>0.4092827921732933</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.4093122792135233</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1204,34 +1267,37 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.351437305009483</v>
+        <v>6.309308884194934</v>
       </c>
       <c r="C23">
-        <v>2.197490888735501</v>
+        <v>2.174256435115751</v>
       </c>
       <c r="D23">
-        <v>0.01186558288734929</v>
+        <v>0.01241414707111588</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.55139263412083</v>
+        <v>1.542270974868046</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.000733079219908237</v>
       </c>
       <c r="H23">
-        <v>0.3936802873007252</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.394537149136049</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1242,34 +1308,37 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.383263107981918</v>
+        <v>5.347457339834307</v>
       </c>
       <c r="C24">
-        <v>1.855545249497879</v>
+        <v>1.835565839593983</v>
       </c>
       <c r="D24">
-        <v>0.0116260681086402</v>
+        <v>0.01249371834200375</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.30359022074208</v>
+        <v>1.300537308163413</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007467893868642215</v>
       </c>
       <c r="H24">
-        <v>0.343049651913077</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.346967329821922</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1280,34 +1349,37 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.366774074539478</v>
+        <v>4.337520233189196</v>
       </c>
       <c r="C25">
-        <v>1.499210321847613</v>
+        <v>1.482607940233038</v>
       </c>
       <c r="D25">
-        <v>0.01189097205032397</v>
+        <v>0.01309910519334423</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.065672844190928</v>
+        <v>1.068952163555394</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007618061129304724</v>
       </c>
       <c r="H25">
-        <v>0.303264027847078</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3103916510076417</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,40 +409,46 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.610176384772672</v>
+        <v>2.400997219578869</v>
       </c>
       <c r="C2">
-        <v>1.230089782594519</v>
+        <v>0.5552499858157489</v>
       </c>
       <c r="D2">
-        <v>0.013889214828815</v>
+        <v>0.03269243340520767</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9176618180183738</v>
+        <v>1.897478914190884</v>
       </c>
       <c r="G2">
-        <v>0.0007731539159589056</v>
+        <v>0.0007919679185901414</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2934330899952045</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6614726525258448</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,40 +456,46 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.124270885548526</v>
+        <v>2.071898492187074</v>
       </c>
       <c r="C3">
-        <v>1.062179148276925</v>
+        <v>0.4794401105925488</v>
       </c>
       <c r="D3">
-        <v>0.01459817828685317</v>
+        <v>0.03436578714686433</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.824661590560936</v>
+        <v>1.707443209262109</v>
       </c>
       <c r="G3">
-        <v>0.0007810661410204722</v>
+        <v>0.0008003553134166023</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2870253161134286</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5704450225229323</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,40 +503,46 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.828492479047725</v>
+        <v>1.872709951297111</v>
       </c>
       <c r="C4">
-        <v>0.9602800969995542</v>
+        <v>0.4334680927107399</v>
       </c>
       <c r="D4">
-        <v>0.01510758220262076</v>
+        <v>0.0354682183657804</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7715506149893514</v>
+        <v>1.595556566801761</v>
       </c>
       <c r="G4">
-        <v>0.0007860452519519644</v>
+        <v>0.0008056310501802789</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2852716930100492</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5153207360781735</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,40 +550,46 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.708487766727558</v>
+        <v>1.792154274756058</v>
       </c>
       <c r="C5">
-        <v>0.919004768315574</v>
+        <v>0.4148531961952528</v>
       </c>
       <c r="D5">
-        <v>0.01533228355224736</v>
+        <v>0.03593480375995917</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7508152976462981</v>
+        <v>1.551041648718993</v>
       </c>
       <c r="G5">
-        <v>0.0007881062600783859</v>
+        <v>0.0008078143450974688</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2850610431035889</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4930198030844295</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,40 +597,46 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.688589653321912</v>
+        <v>1.778812228172427</v>
       </c>
       <c r="C6">
-        <v>0.9121646562040837</v>
+        <v>0.4117686932171978</v>
       </c>
       <c r="D6">
-        <v>0.0153705874568999</v>
+        <v>0.03601328533069292</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7474243897593027</v>
+        <v>1.543711704528604</v>
       </c>
       <c r="G6">
-        <v>0.0007884504636620016</v>
+        <v>0.0008081789445406424</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2850552727783509</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4893257419760175</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,40 +644,46 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.826872067581121</v>
+        <v>1.871621194869363</v>
       </c>
       <c r="C7">
-        <v>0.9597224993401881</v>
+        <v>0.4332165957740131</v>
       </c>
       <c r="D7">
-        <v>0.015110545192492</v>
+        <v>0.03547444260759569</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.77126741647578</v>
+        <v>1.594952010220595</v>
       </c>
       <c r="G7">
-        <v>0.000786072916033992</v>
+        <v>0.0008056603574926579</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2852668676422638</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5150193572721875</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,40 +691,46 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.442027926685228</v>
+        <v>2.286857692702824</v>
       </c>
       <c r="C8">
-        <v>1.171912530808584</v>
+        <v>0.528975060329941</v>
       </c>
       <c r="D8">
-        <v>0.0141173205727938</v>
+        <v>0.03325287930257304</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8847066400354748</v>
+        <v>1.830879793224682</v>
       </c>
       <c r="G8">
-        <v>0.0007758579233133541</v>
+        <v>0.0007948348712372422</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2907431724004113</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6299080411536764</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,40 +738,46 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.674736550598141</v>
+        <v>3.129479698987666</v>
       </c>
       <c r="C9">
-        <v>1.600158525609686</v>
+        <v>0.7226265278124515</v>
       </c>
       <c r="D9">
-        <v>0.01283554050347036</v>
+        <v>0.02956868993082651</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.143617278285561</v>
+        <v>2.337905724510648</v>
       </c>
       <c r="G9">
-        <v>0.0007567083150781392</v>
+        <v>0.0007745172570754689</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3209979087717798</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8628196025038477</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,40 +785,46 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.605965310177737</v>
+        <v>3.774526242120146</v>
       </c>
       <c r="C10">
-        <v>1.926347671559483</v>
+        <v>0.8705517381527557</v>
       </c>
       <c r="D10">
-        <v>0.01242570523675468</v>
+        <v>0.02739560623035686</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.36354608031769</v>
+        <v>2.747377832602155</v>
       </c>
       <c r="G10">
-        <v>0.0007430551404979513</v>
+        <v>0.0007600084416751573</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3585768859575467</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.041003124479616</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,40 +832,46 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.037610951134866</v>
+        <v>4.075884538642583</v>
       </c>
       <c r="C11">
-        <v>2.078331849625499</v>
+        <v>0.9396187743658686</v>
       </c>
       <c r="D11">
-        <v>0.01238877700167862</v>
+        <v>0.02655621442357869</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.471985942584752</v>
+        <v>2.944258332091778</v>
       </c>
       <c r="G11">
-        <v>0.0007369030224828539</v>
+        <v>0.0007534634661830512</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3799005006571434</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.124230711871476</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,40 +879,46 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.202454272321972</v>
+        <v>4.191361113307551</v>
       </c>
       <c r="C12">
-        <v>2.136506823635955</v>
+        <v>0.9660813029551605</v>
       </c>
       <c r="D12">
-        <v>0.01239971350138802</v>
+        <v>0.02626316065103751</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.51444430009289</v>
+        <v>3.020588010154341</v>
       </c>
       <c r="G12">
-        <v>0.0007345788270637366</v>
+        <v>0.0007509895656233612</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3886703105626879</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.156120705527087</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,40 +926,46 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.166886479720063</v>
+        <v>4.166426904027162</v>
       </c>
       <c r="C13">
-        <v>2.123948324017249</v>
+        <v>0.9603674795892516</v>
       </c>
       <c r="D13">
-        <v>0.01239618925393771</v>
+        <v>0.02632511233431245</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.505234842776929</v>
+        <v>3.004065732903513</v>
       </c>
       <c r="G13">
-        <v>0.0007350791921971214</v>
+        <v>0.0007515222216180847</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3867491494286881</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.149234940228482</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,40 +973,46 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.051143425046234</v>
+        <v>4.085356265950168</v>
       </c>
       <c r="C14">
-        <v>2.083104826354656</v>
+        <v>0.9417893505351458</v>
       </c>
       <c r="D14">
-        <v>0.01238915571025245</v>
+        <v>0.02653158635781239</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.475449901104469</v>
+        <v>2.950500884135124</v>
       </c>
       <c r="G14">
-        <v>0.0007367117182151196</v>
+        <v>0.0007532598669441892</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3806075279061503</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.126846452045342</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,40 +1020,46 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.980435789896887</v>
+        <v>4.035882151589931</v>
       </c>
       <c r="C15">
-        <v>2.058171336937448</v>
+        <v>0.9304515752538975</v>
       </c>
       <c r="D15">
-        <v>0.0123882039065073</v>
+        <v>0.02666139715277893</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.457393384057895</v>
+        <v>2.91793007703447</v>
       </c>
       <c r="G15">
-        <v>0.0007377123058032395</v>
+        <v>0.0007543247074414759</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3769389046268472</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.113183470169787</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,40 +1067,46 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.577937069845461</v>
+        <v>3.755009261838609</v>
       </c>
       <c r="C16">
-        <v>1.916496161781311</v>
+        <v>0.8660781271981364</v>
       </c>
       <c r="D16">
-        <v>0.01243140715542168</v>
+        <v>0.0274537386192506</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.356643634259186</v>
+        <v>2.73474527916315</v>
       </c>
       <c r="G16">
-        <v>0.0007434581333774462</v>
+        <v>0.0007604370017479342</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3572755950633422</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.035612737676303</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,40 +1114,46 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.333229712659602</v>
+        <v>3.58487882539896</v>
       </c>
       <c r="C17">
-        <v>1.830574631485092</v>
+        <v>0.8270771433164157</v>
       </c>
       <c r="D17">
-        <v>0.01249846999036919</v>
+        <v>0.02798023992734855</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.297112290716569</v>
+        <v>2.625251713183928</v>
       </c>
       <c r="G17">
-        <v>0.0007469960715900227</v>
+        <v>0.0007641985528130798</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3463541047995378</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9886226167835019</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,40 +1161,46 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.193220096606751</v>
+        <v>3.487755270332798</v>
       </c>
       <c r="C18">
-        <v>1.78148656798237</v>
+        <v>0.8048082915791213</v>
       </c>
       <c r="D18">
-        <v>0.01255088058385567</v>
+        <v>0.028296878563836</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.263648818232426</v>
+        <v>2.563255701173347</v>
       </c>
       <c r="G18">
-        <v>0.0007490367323193151</v>
+        <v>0.000766367517345276</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3404645337836385</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.961795341907191</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,40 +1208,46 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.145935628253824</v>
+        <v>3.454990256721089</v>
       </c>
       <c r="C19">
-        <v>1.764920219957958</v>
+        <v>0.797295025507168</v>
       </c>
       <c r="D19">
-        <v>0.01257090705319186</v>
+        <v>0.02840636498797267</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.252446867078717</v>
+        <v>2.542426486077289</v>
       </c>
       <c r="G19">
-        <v>0.0007497287337370866</v>
+        <v>0.0007671029184079465</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3385353233973092</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9527447423690916</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,40 +1255,46 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.359201085469635</v>
+        <v>3.602912356529657</v>
       </c>
       <c r="C20">
-        <v>1.839686082547132</v>
+        <v>0.8312115848039525</v>
       </c>
       <c r="D20">
-        <v>0.01248987582413008</v>
+        <v>0.02792274117478399</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.303367769311876</v>
+        <v>2.636804179747685</v>
       </c>
       <c r="G20">
-        <v>0.0007466188790683198</v>
+        <v>0.000763797591419071</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.347475534462717</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9936036587611738</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,40 +1302,46 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.085100253781718</v>
+        <v>4.109129896851641</v>
       </c>
       <c r="C21">
-        <v>2.095083769485882</v>
+        <v>0.947237366556692</v>
       </c>
       <c r="D21">
-        <v>0.01239051523826973</v>
+        <v>0.02647023719278607</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.484158988429357</v>
+        <v>2.966183830990559</v>
       </c>
       <c r="G21">
-        <v>0.0007362320827380375</v>
+        <v>0.0007527493845108513</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3823918554464711</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.133411823649709</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,40 +1349,46 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.567743570091125</v>
+        <v>4.448017701561525</v>
       </c>
       <c r="C22">
-        <v>2.265685211696166</v>
+        <v>1.024894817109214</v>
       </c>
       <c r="D22">
-        <v>0.01247284655854486</v>
+        <v>0.02566750921751293</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.610551674524046</v>
+        <v>3.191943068200004</v>
       </c>
       <c r="G22">
-        <v>0.0007294739575150095</v>
+        <v>0.0007455532694249599</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4093122792135233</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.226996859691297</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,40 +1396,46 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.309308884194934</v>
+        <v>4.266329741625157</v>
       </c>
       <c r="C23">
-        <v>2.174256435115751</v>
+        <v>0.9832606350627771</v>
       </c>
       <c r="D23">
-        <v>0.01241414707111588</v>
+        <v>0.02608126927647447</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.542270974868046</v>
+        <v>3.070399128448145</v>
       </c>
       <c r="G23">
-        <v>0.000733079219908237</v>
+        <v>0.000749392976790318</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.394537149136049</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.17682366647675</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,40 +1443,46 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.347457339834307</v>
+        <v>3.594757274351139</v>
       </c>
       <c r="C24">
-        <v>1.835565839593983</v>
+        <v>0.8293419301127187</v>
       </c>
       <c r="D24">
-        <v>0.01249371834200375</v>
+        <v>0.02794869316874227</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.300537308163413</v>
+        <v>2.631578358710271</v>
       </c>
       <c r="G24">
-        <v>0.0007467893868642215</v>
+        <v>0.0007639788458065763</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.346967329821922</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9913511487096685</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,45 +1490,57 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.337520233189196</v>
+        <v>2.897659898244058</v>
       </c>
       <c r="C25">
-        <v>1.482607940233038</v>
+        <v>0.6694122826835951</v>
       </c>
       <c r="D25">
-        <v>0.01309910519334423</v>
+        <v>0.03048165528449331</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.068952163555394</v>
+        <v>2.195038929050824</v>
       </c>
       <c r="G25">
-        <v>0.0007618061129304724</v>
+        <v>0.0007799293542343531</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3103916510076417</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7987635710850753</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.400997219578869</v>
+        <v>3.584535664034888</v>
       </c>
       <c r="C2">
-        <v>0.5552499858157489</v>
+        <v>0.9691422301141017</v>
       </c>
       <c r="D2">
-        <v>0.03269243340520767</v>
+        <v>0.1039725667720575</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.897478914190884</v>
+        <v>0.1342736089517196</v>
       </c>
       <c r="G2">
-        <v>0.0007919679185901414</v>
+        <v>0.05334865281679058</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.08143026413550558</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6614726525258448</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.2351647009546838</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.071898492187074</v>
+        <v>3.128646302652953</v>
       </c>
       <c r="C3">
-        <v>0.4794401105925488</v>
+        <v>0.8558979982550738</v>
       </c>
       <c r="D3">
-        <v>0.03436578714686433</v>
+        <v>0.09075097346616445</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.707443209262109</v>
+        <v>0.1273219220089992</v>
       </c>
       <c r="G3">
-        <v>0.0008003553134166023</v>
+        <v>0.05182357410783212</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0871550186398018</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5704450225229323</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.2435682458552648</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.872709951297111</v>
+        <v>2.848489098436517</v>
       </c>
       <c r="C4">
-        <v>0.4334680927107399</v>
+        <v>0.7863718162332702</v>
       </c>
       <c r="D4">
-        <v>0.0354682183657804</v>
+        <v>0.08262289799696987</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.595556566801761</v>
+        <v>0.1238540465645812</v>
       </c>
       <c r="G4">
-        <v>0.0008056310501802789</v>
+        <v>0.05161158772061825</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.09114383346421917</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5153207360781735</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.2512478282937494</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.792154274756058</v>
+        <v>2.734238063503881</v>
       </c>
       <c r="C5">
-        <v>0.4148531961952528</v>
+        <v>0.758035329967754</v>
       </c>
       <c r="D5">
-        <v>0.03593480375995917</v>
+        <v>0.07930753613695884</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.551041648718993</v>
+        <v>0.1226302022661372</v>
       </c>
       <c r="G5">
-        <v>0.0008078143450974688</v>
+        <v>0.05169563047866532</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.09288319206594409</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4930198030844295</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.2549750525370484</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.778812228172427</v>
+        <v>2.715260970493489</v>
       </c>
       <c r="C6">
-        <v>0.4117686932171978</v>
+        <v>0.7533296826122182</v>
       </c>
       <c r="D6">
-        <v>0.03601328533069292</v>
+        <v>0.07875681862892492</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.543711704528604</v>
+        <v>0.1224380797432971</v>
       </c>
       <c r="G6">
-        <v>0.0008081789445406424</v>
+        <v>0.0517195455290107</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.09317874009210669</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4893257419760175</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.2556290361690259</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.871621194869363</v>
+        <v>2.846948643009398</v>
       </c>
       <c r="C7">
-        <v>0.4332165957740131</v>
+        <v>0.7859896836954476</v>
       </c>
       <c r="D7">
-        <v>0.03547444260759569</v>
+        <v>0.08257819920022769</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.594952010220595</v>
+        <v>0.1238367901575756</v>
       </c>
       <c r="G7">
-        <v>0.0008056603574926579</v>
+        <v>0.05161204623437499</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.09116683673214254</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5150193572721875</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.2512957210692264</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.286857692702824</v>
+        <v>3.427379188147654</v>
       </c>
       <c r="C8">
-        <v>0.528975060329941</v>
+        <v>0.9300907916257586</v>
       </c>
       <c r="D8">
-        <v>0.03325287930257304</v>
+        <v>0.09941545060995338</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.830879793224682</v>
+        <v>0.1317031800095414</v>
       </c>
       <c r="G8">
-        <v>0.0007948348712372422</v>
+        <v>0.05266523699195602</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.08330259321057198</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6299080411536764</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.2375171960904225</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.129479698987666</v>
+        <v>4.56496144165402</v>
       </c>
       <c r="C9">
-        <v>0.7226265278124515</v>
+        <v>1.213011404263682</v>
       </c>
       <c r="D9">
-        <v>0.02956868993082651</v>
+        <v>0.1323851140342498</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.337905724510648</v>
+        <v>0.1540446452493462</v>
       </c>
       <c r="G9">
-        <v>0.0007745172570754689</v>
+        <v>0.06103218148778566</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.07188772663753085</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8628196025038477</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.2321835536925576</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.774526242120146</v>
+        <v>5.402328840594237</v>
       </c>
       <c r="C10">
-        <v>0.8705517381527557</v>
+        <v>1.421538358692146</v>
       </c>
       <c r="D10">
-        <v>0.02739560623035686</v>
+        <v>0.156627333563307</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.747377832602155</v>
+        <v>0.1754982360235005</v>
       </c>
       <c r="G10">
-        <v>0.0007600084416751573</v>
+        <v>0.07182944106980926</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.06630479258008393</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.041003124479616</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.2439555209637945</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.075884538642583</v>
+        <v>5.784097490289469</v>
       </c>
       <c r="C11">
-        <v>0.9396187743658686</v>
+        <v>1.516660163471556</v>
       </c>
       <c r="D11">
-        <v>0.02655621442357869</v>
+        <v>0.1676718760440252</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.944258332091778</v>
+        <v>0.1865457095286658</v>
       </c>
       <c r="G11">
-        <v>0.0007534634661830512</v>
+        <v>0.07794134262868369</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.064458660189743</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.124230711871476</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.2532992436690478</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.191361113307551</v>
+        <v>5.928827167212035</v>
       </c>
       <c r="C12">
-        <v>0.9660813029551605</v>
+        <v>1.552727808120324</v>
       </c>
       <c r="D12">
-        <v>0.02626316065103751</v>
+        <v>0.171857574992714</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.020588010154341</v>
+        <v>0.1909315209344129</v>
       </c>
       <c r="G12">
-        <v>0.0007509895656233612</v>
+        <v>0.08044530523165605</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06386690514072768</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.156120705527087</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.2574628934739707</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.166426904027162</v>
+        <v>5.897649148025039</v>
       </c>
       <c r="C13">
-        <v>0.9603674795892516</v>
+        <v>1.544957742888187</v>
       </c>
       <c r="D13">
-        <v>0.02632511233431245</v>
+        <v>0.1709559435011698</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.004065732903513</v>
+        <v>0.1899776727426996</v>
       </c>
       <c r="G13">
-        <v>0.0007515222216180847</v>
+        <v>0.07989732179260756</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.06398945010567303</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.149234940228482</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.2565375015107207</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.085356265950168</v>
+        <v>5.79600099370947</v>
       </c>
       <c r="C14">
-        <v>0.9417893505351458</v>
+        <v>1.519626469876641</v>
       </c>
       <c r="D14">
-        <v>0.02653158635781239</v>
+        <v>0.1680161625802015</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.950500884135124</v>
+        <v>0.1869023749444025</v>
       </c>
       <c r="G14">
-        <v>0.0007532598669441892</v>
+        <v>0.07814344600144807</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.06440777969576317</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.126846452045342</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.2536289471480018</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.035882151589931</v>
+        <v>5.733760943489017</v>
       </c>
       <c r="C15">
-        <v>0.9304515752538975</v>
+        <v>1.504116758526379</v>
       </c>
       <c r="D15">
-        <v>0.02666139715277893</v>
+        <v>0.1662159311992468</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.91793007703447</v>
+        <v>0.1850455484839131</v>
       </c>
       <c r="G15">
-        <v>0.0007543247074414759</v>
+        <v>0.07709434857174102</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.06467823082977731</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.113183470169787</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.2519304126226274</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.755009261838609</v>
+        <v>5.377399773983313</v>
       </c>
       <c r="C16">
-        <v>0.8660781271981364</v>
+        <v>1.415327982082829</v>
       </c>
       <c r="D16">
-        <v>0.0274537386192506</v>
+        <v>0.1559059633135149</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.73474527916315</v>
+        <v>0.174803618958002</v>
       </c>
       <c r="G16">
-        <v>0.0007604370017479342</v>
+        <v>0.07145558751579983</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.0664400367706719</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.035612737676303</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.2434295026878175</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.58487882539896</v>
+        <v>5.159028219481854</v>
       </c>
       <c r="C17">
-        <v>0.8270771433164157</v>
+        <v>1.36093247013838</v>
       </c>
       <c r="D17">
-        <v>0.02798023992734855</v>
+        <v>0.149586064016006</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.625251713183928</v>
+        <v>0.1688623087058403</v>
       </c>
       <c r="G17">
-        <v>0.0007641985528130798</v>
+        <v>0.06831549542775406</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.0677037443577504</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9886226167835019</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.2392718895038115</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.487755270332798</v>
+        <v>5.033503688042686</v>
       </c>
       <c r="C18">
-        <v>0.8048082915791213</v>
+        <v>1.329669645569652</v>
       </c>
       <c r="D18">
-        <v>0.028296878563836</v>
+        <v>0.1459525276746518</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.563255701173347</v>
+        <v>0.1655651808583372</v>
       </c>
       <c r="G18">
-        <v>0.000766367517345276</v>
+        <v>0.06662128759347752</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.06849539492395706</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.961795341907191</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.2372526727330353</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.454990256721089</v>
+        <v>4.991015284235516</v>
       </c>
       <c r="C19">
-        <v>0.797295025507168</v>
+        <v>1.319088443929274</v>
       </c>
       <c r="D19">
-        <v>0.02840636498797267</v>
+        <v>0.1447225042423668</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.542426486077289</v>
+        <v>0.1644689621124158</v>
       </c>
       <c r="G19">
-        <v>0.0007671029184079465</v>
+        <v>0.06606637665529291</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.06877433983509462</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9527447423690916</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.2366313890216247</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.602912356529657</v>
+        <v>5.182265990894848</v>
       </c>
       <c r="C20">
-        <v>0.8312115848039525</v>
+        <v>1.366720411903259</v>
       </c>
       <c r="D20">
-        <v>0.02792274117478399</v>
+        <v>0.1502586657376668</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.636804179747685</v>
+        <v>0.1694822148138044</v>
       </c>
       <c r="G20">
-        <v>0.000763797591419071</v>
+        <v>0.06863806416374274</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.06756246052882631</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9936036587611738</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.2396755953331819</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.109129896851641</v>
+        <v>5.825852779738</v>
       </c>
       <c r="C21">
-        <v>0.947237366556692</v>
+        <v>1.527065521921884</v>
       </c>
       <c r="D21">
-        <v>0.02647023719278607</v>
+        <v>0.1688795478332992</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.966183830990559</v>
+        <v>0.1878000300793303</v>
       </c>
       <c r="G21">
-        <v>0.0007527493845108513</v>
+        <v>0.07865331795239427</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.06428193008489558</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.133411823649709</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.2544658575449574</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.448017701561525</v>
+        <v>6.247440461432916</v>
       </c>
       <c r="C22">
-        <v>1.024894817109214</v>
+        <v>1.632139701767528</v>
       </c>
       <c r="D22">
-        <v>0.02566750921751293</v>
+        <v>0.181069528036204</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.191943068200004</v>
+        <v>0.2009601204425877</v>
       </c>
       <c r="G22">
-        <v>0.0007455532694249599</v>
+        <v>0.08631218614296188</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.06276743467211787</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.226996859691297</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.2678038885566707</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.266329741625157</v>
+        <v>6.02232847835387</v>
       </c>
       <c r="C23">
-        <v>0.9832606350627771</v>
+        <v>1.576030746316235</v>
       </c>
       <c r="D23">
-        <v>0.02608126927647447</v>
+        <v>0.1745613175542218</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.070399128448145</v>
+        <v>0.193821646851049</v>
       </c>
       <c r="G23">
-        <v>0.000749392976790318</v>
+        <v>0.08211674900988442</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.06351550626825286</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.17682366647675</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.2603311507214556</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.594757274351139</v>
+        <v>5.171760134592716</v>
       </c>
       <c r="C24">
-        <v>0.8293419301127187</v>
+        <v>1.364103653360758</v>
       </c>
       <c r="D24">
-        <v>0.02794869316874227</v>
+        <v>0.1499545830146189</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.631578358710271</v>
+        <v>0.169201587100595</v>
       </c>
       <c r="G24">
-        <v>0.0007639788458065763</v>
+        <v>0.06849188613864499</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.06762613265699002</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9913511487096685</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.2394919280688015</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.897659898244058</v>
+        <v>4.257089383295067</v>
       </c>
       <c r="C25">
-        <v>0.6694122826835951</v>
+        <v>1.136392584464033</v>
       </c>
       <c r="D25">
-        <v>0.03048165528449331</v>
+        <v>0.1234662927263059</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.195038929050824</v>
+        <v>0.1471781195808468</v>
       </c>
       <c r="G25">
-        <v>0.0007799293542343531</v>
+        <v>0.05801341641690883</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0745107899380244</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7987635710850753</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.2310583808825442</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.584535664034888</v>
+        <v>1.196163585097679</v>
       </c>
       <c r="C2">
-        <v>0.9691422301141017</v>
+        <v>0.3482182018094591</v>
       </c>
       <c r="D2">
-        <v>0.1039725667720575</v>
+        <v>0.03380982488847906</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1342736089517196</v>
+        <v>0.2442865934455405</v>
       </c>
       <c r="G2">
-        <v>0.05334865281679058</v>
+        <v>0.1146285456894631</v>
       </c>
       <c r="H2">
-        <v>0.08143026413550558</v>
+        <v>0.3002454461834354</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2351647009546838</v>
+        <v>0.7222467790411145</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.128646302652953</v>
+        <v>1.045275677438326</v>
       </c>
       <c r="C3">
-        <v>0.8558979982550738</v>
+        <v>0.3101611371751005</v>
       </c>
       <c r="D3">
-        <v>0.09075097346616445</v>
+        <v>0.02949114967595534</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1273219220089992</v>
+        <v>0.247929670491402</v>
       </c>
       <c r="G3">
-        <v>0.05182357410783212</v>
+        <v>0.1183797293561675</v>
       </c>
       <c r="H3">
-        <v>0.0871550186398018</v>
+        <v>0.3061218083232511</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2435682458552648</v>
+        <v>0.7422668822984875</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.848489098436517</v>
+        <v>0.952239542118491</v>
       </c>
       <c r="C4">
-        <v>0.7863718162332702</v>
+        <v>0.2867206712037387</v>
       </c>
       <c r="D4">
-        <v>0.08262289799696987</v>
+        <v>0.02682921527202353</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1238540465645812</v>
+        <v>0.2505023081252347</v>
       </c>
       <c r="G4">
-        <v>0.05161158772061825</v>
+        <v>0.1209357462871559</v>
       </c>
       <c r="H4">
-        <v>0.09114383346421917</v>
+        <v>0.3099805673773908</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2512478282937494</v>
+        <v>0.7556121575679953</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.734238063503881</v>
+        <v>0.9142313355809506</v>
       </c>
       <c r="C5">
-        <v>0.758035329967754</v>
+        <v>0.2771509102665561</v>
       </c>
       <c r="D5">
-        <v>0.07930753613695884</v>
+        <v>0.02574196051907052</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1226302022661372</v>
+        <v>0.2516348236892583</v>
       </c>
       <c r="G5">
-        <v>0.05169563047866532</v>
+        <v>0.1220405337469757</v>
       </c>
       <c r="H5">
-        <v>0.09288319206594409</v>
+        <v>0.3116159737164601</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2549750525370484</v>
+        <v>0.7613142159335098</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.715260970493489</v>
+        <v>0.9079144371643793</v>
       </c>
       <c r="C6">
-        <v>0.7533296826122182</v>
+        <v>0.2755608219278542</v>
       </c>
       <c r="D6">
-        <v>0.07875681862892492</v>
+        <v>0.02556127445284062</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1224380797432971</v>
+        <v>0.2518279506901813</v>
       </c>
       <c r="G6">
-        <v>0.0517195455290107</v>
+        <v>0.1222277884136993</v>
       </c>
       <c r="H6">
-        <v>0.09317874009210669</v>
+        <v>0.3118913296972501</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2556290361690259</v>
+        <v>0.7622769389053374</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.846948643009398</v>
+        <v>0.9517273318160733</v>
       </c>
       <c r="C7">
-        <v>0.7859896836954476</v>
+        <v>0.2865916801198978</v>
       </c>
       <c r="D7">
-        <v>0.08257819920022769</v>
+        <v>0.02681456216534173</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1238367901575756</v>
+        <v>0.2505172413099359</v>
       </c>
       <c r="G7">
-        <v>0.05161204623437499</v>
+        <v>0.1209503904785763</v>
       </c>
       <c r="H7">
-        <v>0.09116683673214254</v>
+        <v>0.3100023683640245</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2512957210692264</v>
+        <v>0.7556879909310581</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.427379188147654</v>
+        <v>1.144220156659799</v>
       </c>
       <c r="C8">
-        <v>0.9300907916257586</v>
+        <v>0.3351118266829758</v>
       </c>
       <c r="D8">
-        <v>0.09941545060995338</v>
+        <v>0.0323229213014713</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1317031800095414</v>
+        <v>0.2454728638543848</v>
       </c>
       <c r="G8">
-        <v>0.05266523699195602</v>
+        <v>0.1158692673996882</v>
       </c>
       <c r="H8">
-        <v>0.08330259321057198</v>
+        <v>0.3022195360999405</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.2375171960904225</v>
+        <v>0.7289305953758358</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.56496144165402</v>
+        <v>1.518490512564824</v>
       </c>
       <c r="C9">
-        <v>1.213011404263682</v>
+        <v>0.4296459678457722</v>
       </c>
       <c r="D9">
-        <v>0.1323851140342498</v>
+        <v>0.0430403489289688</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1540446452493462</v>
+        <v>0.238258071423779</v>
       </c>
       <c r="G9">
-        <v>0.06103218148778566</v>
+        <v>0.1079273917558154</v>
       </c>
       <c r="H9">
-        <v>0.07188772663753085</v>
+        <v>0.2889503646041476</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2321835536925576</v>
+        <v>0.6848572886466755</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.402328840594237</v>
+        <v>1.791390635605353</v>
       </c>
       <c r="C10">
-        <v>1.421538358692146</v>
+        <v>0.4986896639481984</v>
       </c>
       <c r="D10">
-        <v>0.156627333563307</v>
+        <v>0.05085953244424957</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1754982360235005</v>
+        <v>0.2346074683331523</v>
       </c>
       <c r="G10">
-        <v>0.07182944106980926</v>
+        <v>0.1033477703701422</v>
       </c>
       <c r="H10">
-        <v>0.06630479258008393</v>
+        <v>0.2804218772328113</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2439555209637945</v>
+        <v>0.6576555415277312</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.784097490289469</v>
+        <v>1.915065521416523</v>
       </c>
       <c r="C11">
-        <v>1.516660163471556</v>
+        <v>0.5300031208670362</v>
       </c>
       <c r="D11">
-        <v>0.1676718760440252</v>
+        <v>0.05440408326026613</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1865457095286658</v>
+        <v>0.2333088495291307</v>
       </c>
       <c r="G11">
-        <v>0.07794134262868369</v>
+        <v>0.1015417252977926</v>
       </c>
       <c r="H11">
-        <v>0.064458660189743</v>
+        <v>0.2768081839197407</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2532992436690478</v>
+        <v>0.6464178919169541</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.928827167212035</v>
+        <v>1.961828051682119</v>
       </c>
       <c r="C12">
-        <v>1.552727808120324</v>
+        <v>0.5418463344281577</v>
       </c>
       <c r="D12">
-        <v>0.171857574992714</v>
+        <v>0.055744451548847</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.1909315209344129</v>
+        <v>0.2328694649366838</v>
       </c>
       <c r="G12">
-        <v>0.08044530523165605</v>
+        <v>0.1008980798925094</v>
       </c>
       <c r="H12">
-        <v>0.06386690514072768</v>
+        <v>0.2754781185731474</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2574628934739707</v>
+        <v>0.6423269652474488</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.897649148025039</v>
+        <v>1.951760086451145</v>
       </c>
       <c r="C13">
-        <v>1.544957742888187</v>
+        <v>0.5392963457313158</v>
       </c>
       <c r="D13">
-        <v>0.1709559435011698</v>
+        <v>0.05545586409567704</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.1899776727426996</v>
+        <v>0.2329617600019205</v>
       </c>
       <c r="G13">
-        <v>0.07989732179260756</v>
+        <v>0.1010349033753002</v>
       </c>
       <c r="H13">
-        <v>0.06398945010567303</v>
+        <v>0.2757628639262109</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2565375015107207</v>
+        <v>0.6432006848052509</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.79600099370947</v>
+        <v>1.918914132568148</v>
       </c>
       <c r="C14">
-        <v>1.519626469876641</v>
+        <v>0.5309777649951002</v>
       </c>
       <c r="D14">
-        <v>0.1680161625802015</v>
+        <v>0.05451439427018556</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.1869023749444025</v>
+        <v>0.233271649669696</v>
       </c>
       <c r="G14">
-        <v>0.07814344600144807</v>
+        <v>0.101487962975682</v>
       </c>
       <c r="H14">
-        <v>0.06440777969576317</v>
+        <v>0.2766979891435923</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2536289471480018</v>
+        <v>0.6460780253196674</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.733760943489017</v>
+        <v>1.898785770492339</v>
       </c>
       <c r="C15">
-        <v>1.504116758526379</v>
+        <v>0.5258804783799746</v>
       </c>
       <c r="D15">
-        <v>0.1662159311992468</v>
+        <v>0.05393746987917325</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.1850455484839131</v>
+        <v>0.2334682958675387</v>
       </c>
       <c r="G15">
-        <v>0.07709434857174102</v>
+        <v>0.1017707304418209</v>
       </c>
       <c r="H15">
-        <v>0.06467823082977731</v>
+        <v>0.2772757796622187</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2519304126226274</v>
+        <v>0.6478619380471429</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.377399773983313</v>
+        <v>1.783298496349573</v>
       </c>
       <c r="C16">
-        <v>1.415327982082829</v>
+        <v>0.4966412722491782</v>
       </c>
       <c r="D16">
-        <v>0.1559059633135149</v>
+        <v>0.05062762995108017</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.174803618958002</v>
+        <v>0.2346996482893218</v>
       </c>
       <c r="G16">
-        <v>0.07145558751579983</v>
+        <v>0.10347141257472</v>
       </c>
       <c r="H16">
-        <v>0.0664400367706719</v>
+        <v>0.2806634024026948</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2434295026878175</v>
+        <v>0.6584129123229729</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.159028219481854</v>
+        <v>1.712328550445875</v>
       </c>
       <c r="C17">
-        <v>1.36093247013838</v>
+        <v>0.4786790458705923</v>
       </c>
       <c r="D17">
-        <v>0.149586064016006</v>
+        <v>0.04859390265431784</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.1688623087058403</v>
+        <v>0.2355479969667513</v>
       </c>
       <c r="G17">
-        <v>0.06831549542775406</v>
+        <v>0.1045860189257581</v>
       </c>
       <c r="H17">
-        <v>0.0677037443577504</v>
+        <v>0.2828098012961995</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2392718895038115</v>
+        <v>0.6651774726398401</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.033503688042686</v>
+        <v>1.671464574797994</v>
       </c>
       <c r="C18">
-        <v>1.329669645569652</v>
+        <v>0.4683387705326254</v>
       </c>
       <c r="D18">
-        <v>0.1459525276746518</v>
+        <v>0.04742299129345895</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.1655651808583372</v>
+        <v>0.23607000500418</v>
       </c>
       <c r="G18">
-        <v>0.06662128759347752</v>
+        <v>0.1052531833305501</v>
       </c>
       <c r="H18">
-        <v>0.06849539492395706</v>
+        <v>0.2840693794549409</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.2372526727330353</v>
+        <v>0.669175182595815</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.991015284235516</v>
+        <v>1.657621281769138</v>
       </c>
       <c r="C19">
-        <v>1.319088443929274</v>
+        <v>0.4648362328985058</v>
       </c>
       <c r="D19">
-        <v>0.1447225042423668</v>
+        <v>0.0470263433914937</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.1644689621124158</v>
+        <v>0.2362525883380897</v>
       </c>
       <c r="G19">
-        <v>0.06606637665529291</v>
+        <v>0.1054835395449025</v>
       </c>
       <c r="H19">
-        <v>0.06877433983509462</v>
+        <v>0.2845001456778427</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2366313890216247</v>
+        <v>0.6705470676773331</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.182265990894848</v>
+        <v>1.719887992203724</v>
       </c>
       <c r="C20">
-        <v>1.366720411903259</v>
+        <v>0.4805920806941231</v>
       </c>
       <c r="D20">
-        <v>0.1502586657376668</v>
+        <v>0.04881051763119615</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.1694822148138044</v>
+        <v>0.2354541614283363</v>
       </c>
       <c r="G20">
-        <v>0.06863806416374274</v>
+        <v>0.1044646659078659</v>
       </c>
       <c r="H20">
-        <v>0.06756246052882631</v>
+        <v>0.2825787224902072</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2396755953331819</v>
+        <v>0.6644463005451087</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.825852779738</v>
+        <v>1.928563722056424</v>
       </c>
       <c r="C21">
-        <v>1.527065521921884</v>
+        <v>0.5334215345798157</v>
       </c>
       <c r="D21">
-        <v>0.1688795478332992</v>
+        <v>0.05479097839719316</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.1878000300793303</v>
+        <v>0.2331792036824112</v>
       </c>
       <c r="G21">
-        <v>0.07865331795239427</v>
+        <v>0.1013537924680321</v>
       </c>
       <c r="H21">
-        <v>0.06428193008489558</v>
+        <v>0.2764222781367991</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.2544658575449574</v>
+        <v>0.6452284067772496</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.247440461432916</v>
+        <v>2.064533251881301</v>
       </c>
       <c r="C22">
-        <v>1.632139701767528</v>
+        <v>0.5678636459757058</v>
       </c>
       <c r="D22">
-        <v>0.181069528036204</v>
+        <v>0.05868857892804158</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.2009601204425877</v>
+        <v>0.2319978060207504</v>
       </c>
       <c r="G22">
-        <v>0.08631218614296188</v>
+        <v>0.09955553238255987</v>
       </c>
       <c r="H22">
-        <v>0.06276743467211787</v>
+        <v>0.2726223422665726</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.2678038885566707</v>
+        <v>0.6336278948680985</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.02232847835387</v>
+        <v>1.992002467529801</v>
       </c>
       <c r="C23">
-        <v>1.576030746316235</v>
+        <v>0.5494893050973246</v>
       </c>
       <c r="D23">
-        <v>0.1745613175542218</v>
+        <v>0.05660938946157046</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.193821646851049</v>
+        <v>0.2326002925092894</v>
       </c>
       <c r="G23">
-        <v>0.08211674900988442</v>
+        <v>0.1004936760929382</v>
       </c>
       <c r="H23">
-        <v>0.06351550626825286</v>
+        <v>0.2746299363706513</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.2603311507214556</v>
+        <v>0.6397311540709012</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.171760134592716</v>
+        <v>1.71647056274827</v>
       </c>
       <c r="C24">
-        <v>1.364103653360758</v>
+        <v>0.4797272397983079</v>
       </c>
       <c r="D24">
-        <v>0.1499545830146189</v>
+        <v>0.04871259127162375</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.169201587100595</v>
+        <v>0.2354964777169499</v>
       </c>
       <c r="G24">
-        <v>0.06849188613864499</v>
+        <v>0.1045194475216142</v>
       </c>
       <c r="H24">
-        <v>0.06762613265699002</v>
+        <v>0.2826831135323076</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2394919280688015</v>
+        <v>0.6647765250219777</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.257089383295067</v>
+        <v>1.417596464407666</v>
       </c>
       <c r="C25">
-        <v>1.136392584464033</v>
+        <v>0.404141479218822</v>
       </c>
       <c r="D25">
-        <v>0.1234662927263059</v>
+        <v>0.04015039802149545</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.1471781195808468</v>
+        <v>0.2399213783982681</v>
       </c>
       <c r="G25">
-        <v>0.05801341641690883</v>
+        <v>0.1098570558486038</v>
       </c>
       <c r="H25">
-        <v>0.0745107899380244</v>
+        <v>0.2923261063439817</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2310583808825442</v>
+        <v>0.6958750777134171</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.196163585097679</v>
+        <v>3.584535664034661</v>
       </c>
       <c r="C2">
-        <v>0.3482182018094591</v>
+        <v>0.9691422301141017</v>
       </c>
       <c r="D2">
-        <v>0.03380982488847906</v>
+        <v>0.1039725667722706</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2442865934455405</v>
+        <v>0.1342736089517196</v>
       </c>
       <c r="G2">
-        <v>0.1146285456894631</v>
+        <v>0.05334865281667689</v>
       </c>
       <c r="H2">
-        <v>0.3002454461834354</v>
+        <v>0.08143026413562282</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7222467790411145</v>
+        <v>0.2351647009546909</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.045275677438326</v>
+        <v>3.128646302653522</v>
       </c>
       <c r="C3">
-        <v>0.3101611371751005</v>
+        <v>0.855897998254818</v>
       </c>
       <c r="D3">
-        <v>0.02949114967595534</v>
+        <v>0.09075097346605077</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.247929670491402</v>
+        <v>0.1273219220089707</v>
       </c>
       <c r="G3">
-        <v>0.1183797293561675</v>
+        <v>0.05182357410788896</v>
       </c>
       <c r="H3">
-        <v>0.3061218083232511</v>
+        <v>0.0871550186398018</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7422668822984875</v>
+        <v>0.2435682458552009</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.952239542118491</v>
+        <v>2.848489098436858</v>
       </c>
       <c r="C4">
-        <v>0.2867206712037387</v>
+        <v>0.7863718162332134</v>
       </c>
       <c r="D4">
-        <v>0.02682921527202353</v>
+        <v>0.08262289799697697</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2505023081252347</v>
+        <v>0.1238540465646132</v>
       </c>
       <c r="G4">
-        <v>0.1209357462871559</v>
+        <v>0.05161158772061825</v>
       </c>
       <c r="H4">
-        <v>0.3099805673773908</v>
+        <v>0.09114383346433286</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7556121575679953</v>
+        <v>0.2512478282937565</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9142313355809506</v>
+        <v>2.734238063503881</v>
       </c>
       <c r="C5">
-        <v>0.2771509102665561</v>
+        <v>0.758035329967754</v>
       </c>
       <c r="D5">
-        <v>0.02574196051907052</v>
+        <v>0.07930753613705832</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2516348236892583</v>
+        <v>0.1226302022661372</v>
       </c>
       <c r="G5">
-        <v>0.1220405337469757</v>
+        <v>0.05169563047866177</v>
       </c>
       <c r="H5">
-        <v>0.3116159737164601</v>
+        <v>0.09288319206594409</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7613142159335098</v>
+        <v>0.2549750525370555</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9079144371643793</v>
+        <v>2.715260970493375</v>
       </c>
       <c r="C6">
-        <v>0.2755608219278542</v>
+        <v>0.7533296826124456</v>
       </c>
       <c r="D6">
-        <v>0.02556127445284062</v>
+        <v>0.07875681862891071</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2518279506901813</v>
+        <v>0.1224380797432936</v>
       </c>
       <c r="G6">
-        <v>0.1222277884136993</v>
+        <v>0.05171954552901781</v>
       </c>
       <c r="H6">
-        <v>0.3118913296972501</v>
+        <v>0.09317874009199301</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7622769389053374</v>
+        <v>0.2556290361690188</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9517273318160733</v>
+        <v>2.846948643009569</v>
       </c>
       <c r="C7">
-        <v>0.2865916801198978</v>
+        <v>0.7859896836957034</v>
       </c>
       <c r="D7">
-        <v>0.02681456216534173</v>
+        <v>0.08257819920025611</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2505172413099359</v>
+        <v>0.1238367901575472</v>
       </c>
       <c r="G7">
-        <v>0.1209503904785763</v>
+        <v>0.05161204623442828</v>
       </c>
       <c r="H7">
-        <v>0.3100023683640245</v>
+        <v>0.09116683673202886</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7556879909310581</v>
+        <v>0.2512957210692122</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.144220156659799</v>
+        <v>3.427379188147825</v>
       </c>
       <c r="C8">
-        <v>0.3351118266829758</v>
+        <v>0.9300907916257586</v>
       </c>
       <c r="D8">
-        <v>0.0323229213014713</v>
+        <v>0.09941545061006707</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2454728638543848</v>
+        <v>0.1317031800095698</v>
       </c>
       <c r="G8">
-        <v>0.1158692673996882</v>
+        <v>0.05266523699195957</v>
       </c>
       <c r="H8">
-        <v>0.3022195360999405</v>
+        <v>0.08330259321068567</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7289305953758358</v>
+        <v>0.2375171960904225</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.518490512564824</v>
+        <v>4.56496144165402</v>
       </c>
       <c r="C9">
-        <v>0.4296459678457722</v>
+        <v>1.213011404263909</v>
       </c>
       <c r="D9">
-        <v>0.0430403489289688</v>
+        <v>0.1323851140342214</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.238258071423779</v>
+        <v>0.1540446452493462</v>
       </c>
       <c r="G9">
-        <v>0.1079273917558154</v>
+        <v>0.06103218148778922</v>
       </c>
       <c r="H9">
-        <v>0.2889503646041476</v>
+        <v>0.0718877266375344</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.6848572886466755</v>
+        <v>0.2321835536925576</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.791390635605353</v>
+        <v>5.402328840594407</v>
       </c>
       <c r="C10">
-        <v>0.4986896639481984</v>
+        <v>1.421538358691919</v>
       </c>
       <c r="D10">
-        <v>0.05085953244424957</v>
+        <v>0.156627333563307</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2346074683331523</v>
+        <v>0.1754982360235005</v>
       </c>
       <c r="G10">
-        <v>0.1033477703701422</v>
+        <v>0.07182944106986611</v>
       </c>
       <c r="H10">
-        <v>0.2804218772328113</v>
+        <v>0.06630479258008393</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6576555415277312</v>
+        <v>0.2439555209637945</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.915065521416523</v>
+        <v>5.784097490289696</v>
       </c>
       <c r="C11">
-        <v>0.5300031208670362</v>
+        <v>1.516660163471556</v>
       </c>
       <c r="D11">
-        <v>0.05440408326026613</v>
+        <v>0.1676718760439115</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2333088495291307</v>
+        <v>0.1865457095286587</v>
       </c>
       <c r="G11">
-        <v>0.1015417252977926</v>
+        <v>0.07794134262861974</v>
       </c>
       <c r="H11">
-        <v>0.2768081839197407</v>
+        <v>0.064458660189743</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6464178919169541</v>
+        <v>0.2532992436689909</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.961828051682119</v>
+        <v>5.928827167212091</v>
       </c>
       <c r="C12">
-        <v>0.5418463344281577</v>
+        <v>1.552727808120096</v>
       </c>
       <c r="D12">
-        <v>0.055744451548847</v>
+        <v>0.171857574992643</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2328694649366838</v>
+        <v>0.1909315209344058</v>
       </c>
       <c r="G12">
-        <v>0.1008980798925094</v>
+        <v>0.08044530523166316</v>
       </c>
       <c r="H12">
-        <v>0.2754781185731474</v>
+        <v>0.06386690514072768</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6423269652474488</v>
+        <v>0.2574628934740417</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.951760086451145</v>
+        <v>5.897649148025266</v>
       </c>
       <c r="C13">
-        <v>0.5392963457313158</v>
+        <v>1.544957742888471</v>
       </c>
       <c r="D13">
-        <v>0.05545586409567704</v>
+        <v>0.1709559435010988</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.2329617600019205</v>
+        <v>0.1899776727426996</v>
       </c>
       <c r="G13">
-        <v>0.1010349033753002</v>
+        <v>0.07989732179261466</v>
       </c>
       <c r="H13">
-        <v>0.2757628639262109</v>
+        <v>0.06398945010555934</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6432006848052509</v>
+        <v>0.2565375015106639</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.918914132568148</v>
+        <v>5.796000993709526</v>
       </c>
       <c r="C14">
-        <v>0.5309777649951002</v>
+        <v>1.519626469876471</v>
       </c>
       <c r="D14">
-        <v>0.05451439427018556</v>
+        <v>0.1680161625800878</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.233271649669696</v>
+        <v>0.1869023749443883</v>
       </c>
       <c r="G14">
-        <v>0.101487962975682</v>
+        <v>0.07814344600144096</v>
       </c>
       <c r="H14">
-        <v>0.2766979891435923</v>
+        <v>0.06440777969576317</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6460780253196674</v>
+        <v>0.2536289471480018</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.898785770492339</v>
+        <v>5.733760943488903</v>
       </c>
       <c r="C15">
-        <v>0.5258804783799746</v>
+        <v>1.504116758526266</v>
       </c>
       <c r="D15">
-        <v>0.05393746987917325</v>
+        <v>0.1662159311994884</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2334682958675387</v>
+        <v>0.185045548483906</v>
       </c>
       <c r="G15">
-        <v>0.1017707304418209</v>
+        <v>0.07709434857174102</v>
       </c>
       <c r="H15">
-        <v>0.2772757796622187</v>
+        <v>0.06467823082965651</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.6478619380471429</v>
+        <v>0.2519304126225848</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.783298496349573</v>
+        <v>5.377399773983086</v>
       </c>
       <c r="C16">
-        <v>0.4966412722491782</v>
+        <v>1.415327982082886</v>
       </c>
       <c r="D16">
-        <v>0.05062762995108017</v>
+        <v>0.1559059633134154</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2346996482893218</v>
+        <v>0.1748036189580091</v>
       </c>
       <c r="G16">
-        <v>0.10347141257472</v>
+        <v>0.07145558751584957</v>
       </c>
       <c r="H16">
-        <v>0.2806634024026948</v>
+        <v>0.06644003677066479</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6584129123229729</v>
+        <v>0.2434295026878601</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.712328550445875</v>
+        <v>5.159028219481854</v>
       </c>
       <c r="C17">
-        <v>0.4786790458705923</v>
+        <v>1.360932470138493</v>
       </c>
       <c r="D17">
-        <v>0.04859390265431784</v>
+        <v>0.1495860640157787</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2355479969667513</v>
+        <v>0.1688623087058332</v>
       </c>
       <c r="G17">
-        <v>0.1045860189257581</v>
+        <v>0.0683154954278038</v>
       </c>
       <c r="H17">
-        <v>0.2828098012961995</v>
+        <v>0.06770374435763671</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6651774726398401</v>
+        <v>0.2392718895037547</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.671464574797994</v>
+        <v>5.033503688042799</v>
       </c>
       <c r="C18">
-        <v>0.4683387705326254</v>
+        <v>1.329669645569652</v>
       </c>
       <c r="D18">
-        <v>0.04742299129345895</v>
+        <v>0.145952527674666</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.23607000500418</v>
+        <v>0.1655651808583087</v>
       </c>
       <c r="G18">
-        <v>0.1052531833305501</v>
+        <v>0.06662128759347752</v>
       </c>
       <c r="H18">
-        <v>0.2840693794549409</v>
+        <v>0.06849539492395706</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.669175182595815</v>
+        <v>0.2372526727330353</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.657621281769138</v>
+        <v>4.991015284235118</v>
       </c>
       <c r="C19">
-        <v>0.4648362328985058</v>
+        <v>1.319088443929274</v>
       </c>
       <c r="D19">
-        <v>0.0470263433914937</v>
+        <v>0.1447225042422815</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2362525883380897</v>
+        <v>0.1644689621124158</v>
       </c>
       <c r="G19">
-        <v>0.1054835395449025</v>
+        <v>0.06606637665534976</v>
       </c>
       <c r="H19">
-        <v>0.2845001456778427</v>
+        <v>0.06877433983497383</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.6705470676773331</v>
+        <v>0.2366313890217384</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.719887992203724</v>
+        <v>5.182265990894678</v>
       </c>
       <c r="C20">
-        <v>0.4805920806941231</v>
+        <v>1.366720411903259</v>
       </c>
       <c r="D20">
-        <v>0.04881051763119615</v>
+        <v>0.1502586657374536</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2354541614283363</v>
+        <v>0.1694822148138257</v>
       </c>
       <c r="G20">
-        <v>0.1044646659078659</v>
+        <v>0.06863806416380669</v>
       </c>
       <c r="H20">
-        <v>0.2825787224902072</v>
+        <v>0.06756246052882631</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6644463005451087</v>
+        <v>0.2396755953331819</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.928563722056424</v>
+        <v>5.825852779737886</v>
       </c>
       <c r="C21">
-        <v>0.5334215345798157</v>
+        <v>1.527065521921884</v>
       </c>
       <c r="D21">
-        <v>0.05479097839719316</v>
+        <v>0.1688795478334129</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.2331792036824112</v>
+        <v>0.1878000300793303</v>
       </c>
       <c r="G21">
-        <v>0.1013537924680321</v>
+        <v>0.07865331795239427</v>
       </c>
       <c r="H21">
-        <v>0.2764222781367991</v>
+        <v>0.06428193008489558</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.6452284067772496</v>
+        <v>0.2544658575450143</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.064533251881301</v>
+        <v>6.2474404614332</v>
       </c>
       <c r="C22">
-        <v>0.5678636459757058</v>
+        <v>1.632139701767301</v>
       </c>
       <c r="D22">
-        <v>0.05868857892804158</v>
+        <v>0.1810695280360051</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.2319978060207504</v>
+        <v>0.2009601204425806</v>
       </c>
       <c r="G22">
-        <v>0.09955553238255987</v>
+        <v>0.08631218614296188</v>
       </c>
       <c r="H22">
-        <v>0.2726223422665726</v>
+        <v>0.06276743467211787</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.6336278948680985</v>
+        <v>0.2678038885566281</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.992002467529801</v>
+        <v>6.022328478353927</v>
       </c>
       <c r="C23">
-        <v>0.5494893050973246</v>
+        <v>1.576030746316007</v>
       </c>
       <c r="D23">
-        <v>0.05660938946157046</v>
+        <v>0.1745613175542218</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2326002925092894</v>
+        <v>0.193821646851049</v>
       </c>
       <c r="G23">
-        <v>0.1004936760929382</v>
+        <v>0.08211674900994126</v>
       </c>
       <c r="H23">
-        <v>0.2746299363706513</v>
+        <v>0.06351550626813918</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.6397311540709012</v>
+        <v>0.2603311507214556</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.71647056274827</v>
+        <v>5.171760134592432</v>
       </c>
       <c r="C24">
-        <v>0.4797272397983079</v>
+        <v>1.364103653361099</v>
       </c>
       <c r="D24">
-        <v>0.04871259127162375</v>
+        <v>0.1499545830146189</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2354964777169499</v>
+        <v>0.1692015871005665</v>
       </c>
       <c r="G24">
-        <v>0.1045194475216142</v>
+        <v>0.06849188613864499</v>
       </c>
       <c r="H24">
-        <v>0.2826831135323076</v>
+        <v>0.06762613265699002</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6647765250219777</v>
+        <v>0.2394919280688015</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.417596464407666</v>
+        <v>4.257089383295067</v>
       </c>
       <c r="C25">
-        <v>0.404141479218822</v>
+        <v>1.136392584464261</v>
       </c>
       <c r="D25">
-        <v>0.04015039802149545</v>
+        <v>0.1234662927264054</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.2399213783982681</v>
+        <v>0.1471781195808752</v>
       </c>
       <c r="G25">
-        <v>0.1098570558486038</v>
+        <v>0.05801341641690527</v>
       </c>
       <c r="H25">
-        <v>0.2923261063439817</v>
+        <v>0.0745107899380244</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6958750777134171</v>
+        <v>0.2310583808825371</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.584535664034661</v>
+        <v>1.004480886843879</v>
       </c>
       <c r="C2">
-        <v>0.9691422301141017</v>
+        <v>0.2049069091482494</v>
       </c>
       <c r="D2">
-        <v>0.1039725667722706</v>
+        <v>0.08990510679951313</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1342736089517196</v>
+        <v>0.4271473771713232</v>
       </c>
       <c r="G2">
-        <v>0.05334865281667689</v>
+        <v>0.3310603308494677</v>
       </c>
       <c r="H2">
-        <v>0.08143026413562282</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001116074630818087</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3103657250037841</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2751084507222945</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.142763399783547</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2351647009546909</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.128646302653522</v>
+        <v>0.8749516085397033</v>
       </c>
       <c r="C3">
-        <v>0.855897998254818</v>
+        <v>0.1796148009296132</v>
       </c>
       <c r="D3">
-        <v>0.09075097346605077</v>
+        <v>0.08142684507597409</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1273219220089707</v>
+        <v>0.4188218656391811</v>
       </c>
       <c r="G3">
-        <v>0.05182357410788896</v>
+        <v>0.3320988024948903</v>
       </c>
       <c r="H3">
-        <v>0.0871550186398018</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002025528671484977</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3173465498907859</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.285675321231766</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9964808120612076</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2435682458552009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.848489098436858</v>
+        <v>0.7952496273135523</v>
       </c>
       <c r="C4">
-        <v>0.7863718162332134</v>
+        <v>0.1642971812360798</v>
       </c>
       <c r="D4">
-        <v>0.08262289799697697</v>
+        <v>0.07625166989347321</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1238540465646132</v>
+        <v>0.4143947937650978</v>
       </c>
       <c r="G4">
-        <v>0.05161158772061825</v>
+        <v>0.3333843572818154</v>
       </c>
       <c r="H4">
-        <v>0.09114383346433286</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00283766663638918</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3220538370769859</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2925530533268503</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9067957475963055</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2512478282937565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.734238063503881</v>
+        <v>0.7624165378696546</v>
       </c>
       <c r="C5">
-        <v>0.758035329967754</v>
+        <v>0.158511486504878</v>
       </c>
       <c r="D5">
-        <v>0.07930753613705832</v>
+        <v>0.07427590577059107</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1226302022661372</v>
+        <v>0.4120017294534009</v>
       </c>
       <c r="G5">
-        <v>0.05169563047866177</v>
+        <v>0.3333399921120659</v>
       </c>
       <c r="H5">
-        <v>0.09288319206594409</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00330477069734636</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3236889539881886</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2950006100333038</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8706246339973518</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2549750525370555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.715260970493375</v>
+        <v>0.7565880150339694</v>
       </c>
       <c r="C6">
-        <v>0.7533296826124456</v>
+        <v>0.1580547641510606</v>
       </c>
       <c r="D6">
-        <v>0.07875681862891071</v>
+        <v>0.07410327805160222</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1224380797432936</v>
+        <v>0.4106950775104679</v>
       </c>
       <c r="G6">
-        <v>0.05171954552901781</v>
+        <v>0.332460032235474</v>
       </c>
       <c r="H6">
-        <v>0.09317874009199301</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.003485562501595929</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3234963327697926</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2948652852296423</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8650529838319017</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2556290361690188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.846948643009569</v>
+        <v>0.7937830212532333</v>
       </c>
       <c r="C7">
-        <v>0.7859896836957034</v>
+        <v>0.1655904817085201</v>
       </c>
       <c r="D7">
-        <v>0.08257819920025611</v>
+        <v>0.07665018931155743</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1238367901575472</v>
+        <v>0.4118538747763694</v>
       </c>
       <c r="G7">
-        <v>0.05161204623442828</v>
+        <v>0.3309774677318984</v>
       </c>
       <c r="H7">
-        <v>0.09116683673202886</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.003099204015676094</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3207949025586458</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.291094705211874</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9074948920871577</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2512957210692122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.427379188147825</v>
+        <v>0.9584796149881072</v>
       </c>
       <c r="C8">
-        <v>0.9300907916257586</v>
+        <v>0.1979703612528567</v>
       </c>
       <c r="D8">
-        <v>0.09941545061006707</v>
+        <v>0.0875463115956947</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1317031800095698</v>
+        <v>0.4208264930465404</v>
       </c>
       <c r="G8">
-        <v>0.05266523699195957</v>
+        <v>0.3281177783631719</v>
       </c>
       <c r="H8">
-        <v>0.08330259321068567</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001677739626771313</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3110095431763753</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.276725062186653</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.093875175260308</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.2375171960904225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.56496144165402</v>
+        <v>1.282258214256387</v>
       </c>
       <c r="C9">
-        <v>1.213011404263909</v>
+        <v>0.2609190902789464</v>
       </c>
       <c r="D9">
-        <v>0.1323851140342214</v>
+        <v>0.1084209849461075</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1540446452493462</v>
+        <v>0.4487304230361175</v>
       </c>
       <c r="G9">
-        <v>0.06103218148778922</v>
+        <v>0.3323175848155557</v>
       </c>
       <c r="H9">
-        <v>0.0718877266375344</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0006753605110016991</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.29758829003557</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2544200115713018</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.458818956327548</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2321835536925576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.402328840594407</v>
+        <v>1.519441065291943</v>
       </c>
       <c r="C10">
-        <v>1.421538358691919</v>
+        <v>0.3094270378723536</v>
       </c>
       <c r="D10">
-        <v>0.156627333563307</v>
+        <v>0.1242152769421807</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1754982360235005</v>
+        <v>0.4721888543002137</v>
       </c>
       <c r="G10">
-        <v>0.07182944106986611</v>
+        <v>0.3382126243663421</v>
       </c>
       <c r="H10">
-        <v>0.06630479258008393</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001602026406404278</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2895175262970753</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2395632075827656</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.729356608744467</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2439555209637945</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.784097490289696</v>
+        <v>1.625663985948449</v>
       </c>
       <c r="C11">
-        <v>1.516660163471556</v>
+        <v>0.3342618173258529</v>
       </c>
       <c r="D11">
-        <v>0.1676718760439115</v>
+        <v>0.1322085170902625</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1865457095286587</v>
+        <v>0.4799138113478847</v>
       </c>
       <c r="G11">
-        <v>0.07794134262861974</v>
+        <v>0.338108260015261</v>
       </c>
       <c r="H11">
-        <v>0.064458660189743</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002781294437570025</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2844499806196481</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2310858295751075</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.855028213442637</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2532992436689909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.928827167212091</v>
+        <v>1.666837103576171</v>
       </c>
       <c r="C12">
-        <v>1.552727808120096</v>
+        <v>0.3424979528195138</v>
       </c>
       <c r="D12">
-        <v>0.171857574992643</v>
+        <v>0.1348548234762461</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.1909315209344058</v>
+        <v>0.485136995107986</v>
       </c>
       <c r="G12">
-        <v>0.08044530523166316</v>
+        <v>0.340250173236285</v>
       </c>
       <c r="H12">
-        <v>0.06386690514072768</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.003092164307786582</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2836795499193201</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2291732325479643</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.901657834707294</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2574628934740417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.897649148025266</v>
+        <v>1.658156021714888</v>
       </c>
       <c r="C13">
-        <v>1.544957742888471</v>
+        <v>0.3404705918091508</v>
       </c>
       <c r="D13">
-        <v>0.1709559435010988</v>
+        <v>0.1342050974345597</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.1899776727426996</v>
+        <v>0.4844322003710886</v>
       </c>
       <c r="G13">
-        <v>0.07989732179261466</v>
+        <v>0.3401867088514194</v>
       </c>
       <c r="H13">
-        <v>0.06398945010555934</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002980564829697663</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2840530427723778</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2298230486478481</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.891396139920602</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2565375015106639</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.796000993709526</v>
+        <v>1.629130357119863</v>
       </c>
       <c r="C14">
-        <v>1.519626469876471</v>
+        <v>0.3348316566946323</v>
       </c>
       <c r="D14">
-        <v>0.1680161625800878</v>
+        <v>0.1323923491901979</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.1869023749443883</v>
+        <v>0.4805218404114271</v>
       </c>
       <c r="G14">
-        <v>0.07814344600144096</v>
+        <v>0.3384533477815808</v>
       </c>
       <c r="H14">
-        <v>0.06440777969576317</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002787493690088461</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.284474736340556</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2310295099589439</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.858771288639417</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2536289471480018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.733760943488903</v>
+        <v>1.610986211213742</v>
       </c>
       <c r="C15">
-        <v>1.504116758526266</v>
+        <v>0.331879803696836</v>
       </c>
       <c r="D15">
-        <v>0.1662159311994884</v>
+        <v>0.1314393815458317</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.185045548483906</v>
+        <v>0.4773065823674969</v>
       </c>
       <c r="G15">
-        <v>0.07709434857174102</v>
+        <v>0.3366151525422509</v>
       </c>
       <c r="H15">
-        <v>0.06467823082965651</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002764321778444767</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2843278294153109</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2313036266461594</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.839223286850313</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2519304126225848</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.377399773983086</v>
+        <v>1.509407640799338</v>
       </c>
       <c r="C16">
-        <v>1.415327982082886</v>
+        <v>0.3119473448125802</v>
       </c>
       <c r="D16">
-        <v>0.1559059633134154</v>
+        <v>0.1250009020679812</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.1748036189580091</v>
+        <v>0.464585812234688</v>
       </c>
       <c r="G16">
-        <v>0.07145558751584957</v>
+        <v>0.331485229368873</v>
       </c>
       <c r="H16">
-        <v>0.06644003677066479</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002218339266799596</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2863242961251657</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2360779880648884</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.724703212586718</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2434295026878601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.159028219481854</v>
+        <v>1.447135794519568</v>
       </c>
       <c r="C17">
-        <v>1.360932470138493</v>
+        <v>0.2998155195642198</v>
       </c>
       <c r="D17">
-        <v>0.1495860640157787</v>
+        <v>0.1210625274601682</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.1688623087058332</v>
+        <v>0.4570915975205523</v>
       </c>
       <c r="G17">
-        <v>0.0683154954278038</v>
+        <v>0.3286328427458756</v>
       </c>
       <c r="H17">
-        <v>0.06770374435763671</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001993627348797489</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2877159412801547</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2391660060494942</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.654596891921869</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2392718895037547</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.033503688042799</v>
+        <v>1.412263705165913</v>
       </c>
       <c r="C18">
-        <v>1.329669645569652</v>
+        <v>0.291616565151088</v>
       </c>
       <c r="D18">
-        <v>0.145952527674666</v>
+        <v>0.118405770543859</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.1655651808583087</v>
+        <v>0.4550409481341546</v>
       </c>
       <c r="G18">
-        <v>0.06662128759347752</v>
+        <v>0.3291341831608676</v>
       </c>
       <c r="H18">
-        <v>0.06849539492395706</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001655863201682983</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2896451545755454</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2422187827305322</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.613249985345306</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.2372526727330353</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.991015284235118</v>
+        <v>1.399739162356326</v>
       </c>
       <c r="C19">
-        <v>1.319088443929274</v>
+        <v>0.2898129697014298</v>
       </c>
       <c r="D19">
-        <v>0.1447225042422815</v>
+        <v>0.1178117900356028</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.1644689621124158</v>
+        <v>0.4527056597282311</v>
       </c>
       <c r="G19">
-        <v>0.06606637665534976</v>
+        <v>0.3277485919135046</v>
       </c>
       <c r="H19">
-        <v>0.06877433983497383</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0017354199418671</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2894832814903481</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2423201126749532</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.600086122572094</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2366313890217384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.182265990894678</v>
+        <v>1.453836630101478</v>
       </c>
       <c r="C20">
-        <v>1.366720411903259</v>
+        <v>0.3010048990761618</v>
       </c>
       <c r="D20">
-        <v>0.1502586657374536</v>
+        <v>0.1214502581184149</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.1694822148138257</v>
+        <v>0.4580465130225093</v>
       </c>
       <c r="G20">
-        <v>0.06863806416380669</v>
+        <v>0.3290852629629129</v>
       </c>
       <c r="H20">
-        <v>0.06756246052882631</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001993878507059677</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2876453174401519</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2389267771727646</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.661970327204614</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2396755953331819</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.825852779737886</v>
+        <v>1.636604976846002</v>
       </c>
       <c r="C21">
-        <v>1.527065521921884</v>
+        <v>0.337891801221275</v>
       </c>
       <c r="D21">
-        <v>0.1688795478334129</v>
+        <v>0.133369588222763</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.1878000300793303</v>
+        <v>0.4792699391856274</v>
       </c>
       <c r="G21">
-        <v>0.07865331795239427</v>
+        <v>0.336690113924071</v>
       </c>
       <c r="H21">
-        <v>0.06428193008489558</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00308989965606532</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2831629192285803</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2293208393445774</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.869553468235097</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.2544658575450143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.2474404614332</v>
+        <v>1.75757096366371</v>
       </c>
       <c r="C22">
-        <v>1.632139701767301</v>
+        <v>0.3605565996239761</v>
       </c>
       <c r="D22">
-        <v>0.1810695280360051</v>
+        <v>0.1406355328035289</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.2009601204425806</v>
+        <v>0.4972510053246069</v>
       </c>
       <c r="G22">
-        <v>0.08631218614296188</v>
+        <v>0.345557015290936</v>
       </c>
       <c r="H22">
-        <v>0.06276743467211787</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003866027484691337</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2823079034087073</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2253011246401329</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.004244770750802</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.2678038885566281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.022328478353927</v>
+        <v>1.694256778754664</v>
       </c>
       <c r="C23">
-        <v>1.576030746316007</v>
+        <v>0.3467330444169932</v>
       </c>
       <c r="D23">
-        <v>0.1745613175542218</v>
+        <v>0.136216956316062</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.193821646851049</v>
+        <v>0.4904420236821352</v>
       </c>
       <c r="G23">
-        <v>0.08211674900994126</v>
+        <v>0.3434640667195268</v>
       </c>
       <c r="H23">
-        <v>0.06351550626813918</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003135566453030592</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2841398253777854</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2290277344823366</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.93085203037927</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.2603311507214556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.171760134592432</v>
+        <v>1.452784160377348</v>
       </c>
       <c r="C24">
-        <v>1.364103653361099</v>
+        <v>0.2978163290073184</v>
       </c>
       <c r="D24">
-        <v>0.1499545830146189</v>
+        <v>0.1204384009793955</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.1692015871005665</v>
+        <v>0.4621728767706728</v>
       </c>
       <c r="G24">
-        <v>0.06849188613864499</v>
+        <v>0.3332032799038132</v>
       </c>
       <c r="H24">
-        <v>0.06762613265699002</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001511663811696984</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2899431591869615</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2416256516964523</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.656365688711645</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2394919280688015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.257089383295067</v>
+        <v>1.192833302260482</v>
       </c>
       <c r="C25">
-        <v>1.136392584464261</v>
+        <v>0.2461853802245457</v>
       </c>
       <c r="D25">
-        <v>0.1234662927264054</v>
+        <v>0.1035351323087141</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.1471781195808752</v>
+        <v>0.4360237312197199</v>
       </c>
       <c r="G25">
-        <v>0.05801341641690527</v>
+        <v>0.3262697283436609</v>
       </c>
       <c r="H25">
-        <v>0.0745107899380244</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001112927531750074</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2985754708514321</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2574958902443747</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.36202635135848</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2310583808825371</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.004480886843879</v>
+        <v>1.000400215975958</v>
       </c>
       <c r="C2">
-        <v>0.2049069091482494</v>
+        <v>0.2125752050935859</v>
       </c>
       <c r="D2">
-        <v>0.08990510679951313</v>
+        <v>0.0934133825475385</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4271473771713232</v>
+        <v>0.3926322153224078</v>
       </c>
       <c r="G2">
-        <v>0.3310603308494677</v>
+        <v>0.2811223955875022</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001116074630818087</v>
+        <v>0.0007884097299344361</v>
       </c>
       <c r="J2">
-        <v>0.3103657250037841</v>
+        <v>0.3174695036091677</v>
       </c>
       <c r="K2">
-        <v>0.2751084507222945</v>
+        <v>0.2459177155032837</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1306607040527972</v>
       </c>
       <c r="M2">
-        <v>1.142763399783547</v>
+        <v>0.06148422228678996</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.158968763571096</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8749516085397033</v>
+        <v>0.8741922601662679</v>
       </c>
       <c r="C3">
-        <v>0.1796148009296132</v>
+        <v>0.1833249591171011</v>
       </c>
       <c r="D3">
-        <v>0.08142684507597409</v>
+        <v>0.08344088207226008</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4188218656391811</v>
+        <v>0.3884462098338233</v>
       </c>
       <c r="G3">
-        <v>0.3320988024948903</v>
+        <v>0.2868617351599241</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.002025528671484977</v>
+        <v>0.001294611035242088</v>
       </c>
       <c r="J3">
-        <v>0.3173465498907859</v>
+        <v>0.3227372137229807</v>
       </c>
       <c r="K3">
-        <v>0.285675321231766</v>
+        <v>0.2572830513653148</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1371113245037119</v>
       </c>
       <c r="M3">
-        <v>0.9964808120612076</v>
+        <v>0.06475550433871291</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.009804803589105</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7952496273135523</v>
+        <v>0.7964195758187884</v>
       </c>
       <c r="C4">
-        <v>0.1642971812360798</v>
+        <v>0.1656765301106446</v>
       </c>
       <c r="D4">
-        <v>0.07625166989347321</v>
+        <v>0.07737203229644507</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4143947937650978</v>
+        <v>0.3863891784995701</v>
       </c>
       <c r="G4">
-        <v>0.3333843572818154</v>
+        <v>0.2910228003829971</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.00283766663638918</v>
+        <v>0.001803625459695812</v>
       </c>
       <c r="J4">
-        <v>0.3220538370769859</v>
+        <v>0.3261343038834994</v>
       </c>
       <c r="K4">
-        <v>0.2925530533268503</v>
+        <v>0.2645594114483405</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1412783107386382</v>
       </c>
       <c r="M4">
-        <v>0.9067957475963055</v>
+        <v>0.0672941944151475</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9183394922966102</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7624165378696546</v>
+        <v>0.7643699931476249</v>
       </c>
       <c r="C5">
-        <v>0.158511486504878</v>
+        <v>0.1589485025847921</v>
       </c>
       <c r="D5">
-        <v>0.07427590577059107</v>
+        <v>0.0750316972932481</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4120017294534009</v>
+        <v>0.3850043460926571</v>
       </c>
       <c r="G5">
-        <v>0.3333399921120659</v>
+        <v>0.2922453726734844</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.00330477069734636</v>
+        <v>0.002145104640361772</v>
       </c>
       <c r="J5">
-        <v>0.3236889539881886</v>
+        <v>0.3272072428933299</v>
       </c>
       <c r="K5">
-        <v>0.2950006100333038</v>
+        <v>0.2672172056148181</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1428155239632005</v>
       </c>
       <c r="M5">
-        <v>0.8706246339973518</v>
+        <v>0.06838627631357674</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8814153898874793</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7565880150339694</v>
+        <v>0.7586985495540262</v>
       </c>
       <c r="C6">
-        <v>0.1580547641510606</v>
+        <v>0.1583157410350253</v>
       </c>
       <c r="D6">
-        <v>0.07410327805160222</v>
+        <v>0.07479110015945167</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4106950775104679</v>
+        <v>0.3839657912566139</v>
       </c>
       <c r="G6">
-        <v>0.332460032235474</v>
+        <v>0.2916961921393479</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.003485562501595929</v>
+        <v>0.002319368244199538</v>
       </c>
       <c r="J6">
-        <v>0.3234963327697926</v>
+        <v>0.3269598652882806</v>
       </c>
       <c r="K6">
-        <v>0.2948652852296423</v>
+        <v>0.2672014621211698</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1428162483418962</v>
       </c>
       <c r="M6">
-        <v>0.8650529838319017</v>
+        <v>0.06848494741222755</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8756859409924118</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7937830212532333</v>
+        <v>0.7952696501244247</v>
       </c>
       <c r="C7">
-        <v>0.1655904817085201</v>
+        <v>0.1665051982351713</v>
       </c>
       <c r="D7">
-        <v>0.07665018931155743</v>
+        <v>0.07799379967670461</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4118538747763694</v>
+        <v>0.3828491396093483</v>
       </c>
       <c r="G7">
-        <v>0.3309774677318984</v>
+        <v>0.2903655870197781</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.003099204015676094</v>
+        <v>0.002106602639716293</v>
       </c>
       <c r="J7">
-        <v>0.3207949025586458</v>
+        <v>0.3215542685393089</v>
       </c>
       <c r="K7">
-        <v>0.291094705211874</v>
+        <v>0.2627953104979248</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1403223624579244</v>
       </c>
       <c r="M7">
-        <v>0.9074948920871577</v>
+        <v>0.06692601944902421</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9185636218355739</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9584796149881072</v>
+        <v>0.9564387086533088</v>
       </c>
       <c r="C8">
-        <v>0.1979703612528567</v>
+        <v>0.2028499171706954</v>
       </c>
       <c r="D8">
-        <v>0.0875463115956947</v>
+        <v>0.09135750643405771</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4208264930465404</v>
+        <v>0.3839278577849043</v>
       </c>
       <c r="G8">
-        <v>0.3281177783631719</v>
+        <v>0.284947347312162</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.001677739626771313</v>
+        <v>0.001280278356688314</v>
       </c>
       <c r="J8">
-        <v>0.3110095431763753</v>
+        <v>0.3067829382024527</v>
       </c>
       <c r="K8">
-        <v>0.276725062186653</v>
+        <v>0.2464396879503585</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1312166633354597</v>
       </c>
       <c r="M8">
-        <v>1.093875175260308</v>
+        <v>0.06160755316067057</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.107710147229</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.282258214256387</v>
+        <v>1.271367241851664</v>
       </c>
       <c r="C9">
-        <v>0.2609190902789464</v>
+        <v>0.275894291164235</v>
       </c>
       <c r="D9">
-        <v>0.1084209849461075</v>
+        <v>0.1163839991315854</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4487304230361175</v>
+        <v>0.3990655010958406</v>
       </c>
       <c r="G9">
-        <v>0.3323175848155557</v>
+        <v>0.2783025797357936</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0006753605110016991</v>
+        <v>0.000885756256075787</v>
       </c>
       <c r="J9">
-        <v>0.29758829003557</v>
+        <v>0.2931661660926324</v>
       </c>
       <c r="K9">
-        <v>0.2544200115713018</v>
+        <v>0.2209742928042964</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1171144378637745</v>
       </c>
       <c r="M9">
-        <v>1.458818956327548</v>
+        <v>0.05647303381449653</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.479410703412469</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.519441065291943</v>
+        <v>1.502760863926284</v>
       </c>
       <c r="C10">
-        <v>0.3094270378723536</v>
+        <v>0.3298428377835023</v>
       </c>
       <c r="D10">
-        <v>0.1242152769421807</v>
+        <v>0.1369288599377541</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4721888543002137</v>
+        <v>0.4051177031040467</v>
       </c>
       <c r="G10">
-        <v>0.3382126243663421</v>
+        <v>0.2848570655136697</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.001602026406404278</v>
+        <v>0.001922061734047631</v>
       </c>
       <c r="J10">
-        <v>0.2895175262970753</v>
+        <v>0.2664294424700131</v>
       </c>
       <c r="K10">
-        <v>0.2395632075827656</v>
+        <v>0.2007468764738753</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1067011259282129</v>
       </c>
       <c r="M10">
-        <v>1.729356608744467</v>
+        <v>0.0540793191423532</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.752305779329419</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.625663985948449</v>
+        <v>1.608786589908107</v>
       </c>
       <c r="C11">
-        <v>0.3342618173258529</v>
+        <v>0.3527968003077717</v>
       </c>
       <c r="D11">
-        <v>0.1322085170902625</v>
+        <v>0.1500059773727855</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4799138113478847</v>
+        <v>0.392887040866988</v>
       </c>
       <c r="G11">
-        <v>0.338108260015261</v>
+        <v>0.301180556494991</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.002781294437570025</v>
+        <v>0.003111938035931239</v>
       </c>
       <c r="J11">
-        <v>0.2844499806196481</v>
+        <v>0.228863219063264</v>
       </c>
       <c r="K11">
-        <v>0.2310858295751075</v>
+        <v>0.1858943496193302</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1003629009790519</v>
       </c>
       <c r="M11">
-        <v>1.855028213442637</v>
+        <v>0.05084846144187871</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.874709594858473</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.666837103576171</v>
+        <v>1.650109226145076</v>
       </c>
       <c r="C12">
-        <v>0.3424979528195138</v>
+        <v>0.3597984643009227</v>
       </c>
       <c r="D12">
-        <v>0.1348548234762461</v>
+        <v>0.1549905746950486</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.485136995107986</v>
+        <v>0.3886566005997452</v>
       </c>
       <c r="G12">
-        <v>0.340250173236285</v>
+        <v>0.3115772036478432</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.003092164307786582</v>
+        <v>0.003362998333253486</v>
       </c>
       <c r="J12">
-        <v>0.2836795499193201</v>
+        <v>0.2147797573612742</v>
       </c>
       <c r="K12">
-        <v>0.2291732325479643</v>
+        <v>0.1807454138553446</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09822059665338223</v>
       </c>
       <c r="M12">
-        <v>1.901657834707294</v>
+        <v>0.04980405610690219</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.919629827543218</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.658156021714888</v>
+        <v>1.641365616620249</v>
       </c>
       <c r="C13">
-        <v>0.3404705918091508</v>
+        <v>0.3580699711765192</v>
       </c>
       <c r="D13">
-        <v>0.1342050974345597</v>
+        <v>0.153817235074257</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4844322003710886</v>
+        <v>0.3899731303683609</v>
       </c>
       <c r="G13">
-        <v>0.3401867088514194</v>
+        <v>0.3095785430881364</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.002980564829697663</v>
+        <v>0.003255839228748059</v>
       </c>
       <c r="J13">
-        <v>0.2840530427723778</v>
+        <v>0.2179002180760783</v>
       </c>
       <c r="K13">
-        <v>0.2298230486478481</v>
+        <v>0.1820332708339372</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09873397261822081</v>
       </c>
       <c r="M13">
-        <v>1.891396139920602</v>
+        <v>0.05010915155341245</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.90977687278442</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.629130357119863</v>
+        <v>1.61225208736235</v>
       </c>
       <c r="C14">
-        <v>0.3348316566946323</v>
+        <v>0.3532794616596391</v>
       </c>
       <c r="D14">
-        <v>0.1323923491901979</v>
+        <v>0.1503734670821757</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4805218404114271</v>
+        <v>0.3927141370859673</v>
       </c>
       <c r="G14">
-        <v>0.3384533477815808</v>
+        <v>0.3021340848148242</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.002787493690088461</v>
+        <v>0.003109617186204616</v>
       </c>
       <c r="J14">
-        <v>0.284474736340556</v>
+        <v>0.2277504100607786</v>
       </c>
       <c r="K14">
-        <v>0.2310295099589439</v>
+        <v>0.185548709190984</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1002097745529209</v>
       </c>
       <c r="M14">
-        <v>1.858771288639417</v>
+        <v>0.05079693083407477</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.878329846288636</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.610986211213742</v>
+        <v>1.594126588838463</v>
       </c>
       <c r="C15">
-        <v>0.331879803696836</v>
+        <v>0.3507608807280178</v>
       </c>
       <c r="D15">
-        <v>0.1314393815458317</v>
+        <v>0.1484764934082961</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4773065823674969</v>
+        <v>0.3935247716469945</v>
       </c>
       <c r="G15">
-        <v>0.3366151525422509</v>
+        <v>0.2972213050336237</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.002764321778444767</v>
+        <v>0.003131490429058026</v>
       </c>
       <c r="J15">
-        <v>0.2843278294153109</v>
+        <v>0.2335372957011472</v>
       </c>
       <c r="K15">
-        <v>0.2313036266461594</v>
+        <v>0.1873203761739823</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1010014345339254</v>
       </c>
       <c r="M15">
-        <v>1.839223286850313</v>
+        <v>0.05105153223879633</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.859400244640767</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.509407640799338</v>
+        <v>1.493046055350476</v>
       </c>
       <c r="C16">
-        <v>0.3119473448125802</v>
+        <v>0.3323181930559258</v>
       </c>
       <c r="D16">
-        <v>0.1250009020679812</v>
+        <v>0.1374182767184493</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.464585812234688</v>
+        <v>0.3997732585866345</v>
       </c>
       <c r="G16">
-        <v>0.331485229368873</v>
+        <v>0.2783825562923852</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.002218339266799596</v>
+        <v>0.00268240922983054</v>
       </c>
       <c r="J16">
-        <v>0.2863242961251657</v>
+        <v>0.2660963832325436</v>
       </c>
       <c r="K16">
-        <v>0.2360779880648884</v>
+        <v>0.198703580848699</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1060815056386613</v>
       </c>
       <c r="M16">
-        <v>1.724703212586718</v>
+        <v>0.05305381828903499</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.747537756587747</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.447135794519568</v>
+        <v>1.431577470551417</v>
       </c>
       <c r="C17">
-        <v>0.2998155195642198</v>
+        <v>0.3201628544890411</v>
       </c>
       <c r="D17">
-        <v>0.1210625274601682</v>
+        <v>0.1313062433642784</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4570915975205523</v>
+        <v>0.4011792029052472</v>
       </c>
       <c r="G17">
-        <v>0.3286328427458756</v>
+        <v>0.2707339041051497</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.001993627348797489</v>
+        <v>0.002483727953884518</v>
       </c>
       <c r="J17">
-        <v>0.2877159412801547</v>
+        <v>0.282348434422218</v>
       </c>
       <c r="K17">
-        <v>0.2391660060494942</v>
+        <v>0.2048960705853347</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.109035053037319</v>
       </c>
       <c r="M17">
-        <v>1.654596891921869</v>
+        <v>0.05398371137688862</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.678135422983672</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.412263705165913</v>
+        <v>1.39725903810691</v>
       </c>
       <c r="C18">
-        <v>0.291616565151088</v>
+        <v>0.3116453653021551</v>
       </c>
       <c r="D18">
-        <v>0.118405770543859</v>
+        <v>0.1276340730171341</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4550409481341546</v>
+        <v>0.4029419096628004</v>
       </c>
       <c r="G18">
-        <v>0.3291341831608676</v>
+        <v>0.2693118185514365</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001655863201682983</v>
+        <v>0.002098384082174221</v>
       </c>
       <c r="J18">
-        <v>0.2896451545755454</v>
+        <v>0.2906536581865353</v>
       </c>
       <c r="K18">
-        <v>0.2422187827305322</v>
+        <v>0.2090803603272544</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1109952126917584</v>
       </c>
       <c r="M18">
-        <v>1.613249985345306</v>
+        <v>0.05477839677630136</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.636945969366224</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.399739162356326</v>
+        <v>1.385011564241438</v>
       </c>
       <c r="C19">
-        <v>0.2898129697014298</v>
+        <v>0.3096597506782643</v>
       </c>
       <c r="D19">
-        <v>0.1178117900356028</v>
+        <v>0.1267254504238196</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4527056597282311</v>
+        <v>0.4019793265738372</v>
       </c>
       <c r="G19">
-        <v>0.3277485919135046</v>
+        <v>0.2677328321577406</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0017354199418671</v>
+        <v>0.002199151741598904</v>
       </c>
       <c r="J19">
-        <v>0.2894832814903481</v>
+        <v>0.2924236916470022</v>
       </c>
       <c r="K19">
-        <v>0.2423201126749532</v>
+        <v>0.2097322600418323</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1113823572872583</v>
       </c>
       <c r="M19">
-        <v>1.600086122572094</v>
+        <v>0.05475405409023004</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.623722453371954</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.453836630101478</v>
+        <v>1.438168573419091</v>
       </c>
       <c r="C20">
-        <v>0.3010048990761618</v>
+        <v>0.3213912798227909</v>
       </c>
       <c r="D20">
-        <v>0.1214502581184149</v>
+        <v>0.1319024282192771</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4580465130225093</v>
+        <v>0.401263350046591</v>
       </c>
       <c r="G20">
-        <v>0.3290852629629129</v>
+        <v>0.2715452585003035</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.001993878507059677</v>
+        <v>0.002478249861898263</v>
       </c>
       <c r="J20">
-        <v>0.2876453174401519</v>
+        <v>0.2808741335619018</v>
       </c>
       <c r="K20">
-        <v>0.2389267771727646</v>
+        <v>0.204339295434675</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1087540953781652</v>
       </c>
       <c r="M20">
-        <v>1.661970327204614</v>
+        <v>0.05392356104257523</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.685473862584701</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.636604976846002</v>
+        <v>1.620708764029587</v>
       </c>
       <c r="C21">
-        <v>0.337891801221275</v>
+        <v>0.3545176506884786</v>
       </c>
       <c r="D21">
-        <v>0.133369588222763</v>
+        <v>0.1528513731653902</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4792699391856274</v>
+        <v>0.3856419809582974</v>
       </c>
       <c r="G21">
-        <v>0.336690113924071</v>
+        <v>0.3078865776512743</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.00308989965606532</v>
+        <v>0.003444028620161355</v>
       </c>
       <c r="J21">
-        <v>0.2831629192285803</v>
+        <v>0.2169786432516432</v>
       </c>
       <c r="K21">
-        <v>0.2293208393445774</v>
+        <v>0.1820582394143742</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.0989890533278448</v>
       </c>
       <c r="M21">
-        <v>1.869553468235097</v>
+        <v>0.0495176846440355</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.887257449241531</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.75757096366371</v>
+        <v>1.741751795964007</v>
       </c>
       <c r="C22">
-        <v>0.3605565996239761</v>
+        <v>0.3741277167725343</v>
       </c>
       <c r="D22">
-        <v>0.1406355328035289</v>
+        <v>0.1667178578973818</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4972510053246069</v>
+        <v>0.3771481854568179</v>
       </c>
       <c r="G22">
-        <v>0.345557015290936</v>
+        <v>0.3398754715951782</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.003866027484691337</v>
+        <v>0.003958169725849281</v>
       </c>
       <c r="J22">
-        <v>0.2823079034087073</v>
+        <v>0.1862554449068341</v>
       </c>
       <c r="K22">
-        <v>0.2253011246401329</v>
+        <v>0.168899082035912</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.0935422242160433</v>
       </c>
       <c r="M22">
-        <v>2.004244770750802</v>
+        <v>0.04721778121201758</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.017442215435267</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.694256778754664</v>
+        <v>1.677643215448285</v>
       </c>
       <c r="C23">
-        <v>0.3467330444169932</v>
+        <v>0.3631188199245514</v>
       </c>
       <c r="D23">
-        <v>0.136216956316062</v>
+        <v>0.1579772917208544</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4904420236821352</v>
+        <v>0.3870464968193517</v>
       </c>
       <c r="G23">
-        <v>0.3434640667195268</v>
+        <v>0.3206702742315741</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.003135566453030592</v>
+        <v>0.003321501318019671</v>
       </c>
       <c r="J23">
-        <v>0.2841398253777854</v>
+        <v>0.2063091198549927</v>
       </c>
       <c r="K23">
-        <v>0.2290277344823366</v>
+        <v>0.1780156568700839</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09704768631709371</v>
       </c>
       <c r="M23">
-        <v>1.93085203037927</v>
+        <v>0.04939179661466397</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.94763274524928</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.452784160377348</v>
+        <v>1.436996296454282</v>
       </c>
       <c r="C24">
-        <v>0.2978163290073184</v>
+        <v>0.3182398476665185</v>
       </c>
       <c r="D24">
-        <v>0.1204384009793955</v>
+        <v>0.130814054932614</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4621728767706728</v>
+        <v>0.4050853810221255</v>
       </c>
       <c r="G24">
-        <v>0.3332032799038132</v>
+        <v>0.2747838760494616</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001511663811696984</v>
+        <v>0.001897169611809524</v>
       </c>
       <c r="J24">
-        <v>0.2899431591869615</v>
+        <v>0.2833431340693977</v>
       </c>
       <c r="K24">
-        <v>0.2416256516964523</v>
+        <v>0.2065315002526837</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1095798921047439</v>
       </c>
       <c r="M24">
-        <v>1.656365688711645</v>
+        <v>0.05472000243564246</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.68004812086798</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.192833302260482</v>
+        <v>1.184278378891349</v>
       </c>
       <c r="C25">
-        <v>0.2461853802245457</v>
+        <v>0.2588684346055317</v>
       </c>
       <c r="D25">
-        <v>0.1035351323087141</v>
+        <v>0.1099577832233223</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4360237312197199</v>
+        <v>0.3924081058760933</v>
       </c>
       <c r="G25">
-        <v>0.3262697283436609</v>
+        <v>0.2738537430186483</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001112927531750074</v>
+        <v>0.00129647444729919</v>
       </c>
       <c r="J25">
-        <v>0.2985754708514321</v>
+        <v>0.2993560007161804</v>
       </c>
       <c r="K25">
-        <v>0.2574958902443747</v>
+        <v>0.2262791383396099</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1202070290660693</v>
       </c>
       <c r="M25">
-        <v>1.36202635135848</v>
+        <v>0.05695280864806485</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.381217478523723</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
